--- a/15_Period_20_Feb_2025_sd_19_Mar_2025/Timesheet Danamon_Bayu Bagus Bagaswara_March.xlsx
+++ b/15_Period_20_Feb_2025_sd_19_Mar_2025/Timesheet Danamon_Bayu Bagus Bagaswara_March.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayub\Projects Bayu\TIMESHEET DANAMON BAYU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayub\Projects Bayu\TIMESHEET DANAMON BAYU\15_Period_20_Feb_2025_sd_19_Mar_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D4840F-5FD7-4202-8E90-C72A02D69ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FA2F01-D343-4DD0-BF55-D60526499AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{287076C2-500C-4AE4-B01E-3C74A6B599A0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="175">
   <si>
     <t>Timesheet Period</t>
   </si>
@@ -274,12 +274,6 @@
   </si>
   <si>
     <t>* = optional</t>
-  </si>
-  <si>
-    <t>Britney</t>
-  </si>
-  <si>
-    <t>Spears</t>
   </si>
   <si>
     <t xml:space="preserve">TIMESHEET GUIDELINE </t>
@@ -703,6 +697,45 @@
       <t xml:space="preserve">
 Harry Potter</t>
     </r>
+  </si>
+  <si>
+    <t>PR.136583/PO.75628</t>
+  </si>
+  <si>
+    <t>Bank Danamon Falatehan</t>
+  </si>
+  <si>
+    <t>Bayu Bagus Bagaswara</t>
+  </si>
+  <si>
+    <t>IT Java Developer</t>
+  </si>
+  <si>
+    <t>Edy Yanto</t>
+  </si>
+  <si>
+    <t>Dody Arya</t>
+  </si>
+  <si>
+    <t>please drop your signature here
+Edy Yanto</t>
+  </si>
+  <si>
+    <t>please drop your signature here
+Dody Arya</t>
+  </si>
+  <si>
+    <t>please drop your signature here
+Bayu Bagus Bagaswara</t>
+  </si>
+  <si>
+    <t>Acknowledgement by (19-03-25)</t>
+  </si>
+  <si>
+    <t>Daily IT TFC</t>
+  </si>
+  <si>
+    <t>Create PlacementDataServiceImpl as layer service (logic). There are also several methods such as: create, getById, getByDateAndApprovalStatusIsNullOrPending, updatePlacementApprovalIdAndStatus, getByDate</t>
   </si>
 </sst>
 </file>
@@ -4485,10 +4518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA136F23-B726-450C-8838-7114D5303DC9}">
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="G52" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="AE69" sqref="AE69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4497,20 +4530,23 @@
     <col min="2" max="2" width="33.1796875" style="45" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" style="42" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.6328125" style="4" customWidth="1"/>
     <col min="12" max="12" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="33" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.81640625" style="4" customWidth="1"/>
-    <col min="35" max="35" width="7.1796875" style="4" customWidth="1"/>
-    <col min="36" max="36" width="11.54296875" style="4" customWidth="1"/>
-    <col min="37" max="16384" width="8.7265625" style="4"/>
+    <col min="13" max="19" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.08984375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="8.1796875" style="4" customWidth="1"/>
+    <col min="22" max="29" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -4533,7 +4569,7 @@
       <c r="P1" s="78"/>
       <c r="Q1" s="78"/>
     </row>
-    <row r="2" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="17" x14ac:dyDescent="0.4">
       <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
@@ -4558,7 +4594,7 @@
       <c r="P2" s="78"/>
       <c r="Q2" s="78"/>
     </row>
-    <row r="3" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="76" t="s">
         <v>4</v>
       </c>
@@ -4583,7 +4619,7 @@
       <c r="P3" s="78"/>
       <c r="Q3" s="78"/>
     </row>
-    <row r="4" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="17" x14ac:dyDescent="0.4">
       <c r="A4" s="76"/>
       <c r="B4" s="81"/>
       <c r="C4" s="76"/>
@@ -4602,12 +4638,12 @@
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
     </row>
-    <row r="5" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.4">
       <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="83" t="s">
@@ -4616,7 +4652,7 @@
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
       <c r="H5" s="84" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="I5" s="84"/>
       <c r="J5" s="78"/>
@@ -4626,18 +4662,18 @@
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
       <c r="N5" s="142" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="O5" s="142"/>
       <c r="P5" s="142"/>
       <c r="Q5" s="142"/>
     </row>
-    <row r="6" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="83" t="s">
@@ -4646,7 +4682,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
       <c r="H6" s="84" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="I6" s="84"/>
       <c r="J6" s="78"/>
@@ -4656,14 +4692,14 @@
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
       <c r="N6" s="141" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="O6" s="141"/>
       <c r="P6" s="141"/>
       <c r="Q6" s="141"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:36" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
         <v>18</v>
       </c>
@@ -4682,7 +4718,7 @@
       <c r="P7" s="76"/>
       <c r="Q7" s="76"/>
     </row>
-    <row r="9" spans="1:36" ht="17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.35">
       <c r="A9" s="175" t="s">
         <v>20</v>
       </c>
@@ -4693,7 +4729,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
-        <f t="shared" ref="D9:AH9" si="0">IFERROR(IF(D10="","",TEXT(D10,"ddd")),"")</f>
+        <f t="shared" ref="D9:AE9" si="0">IFERROR(IF(D10="","",TEXT(D10,"ddd")),"")</f>
         <v>Thu</v>
       </c>
       <c r="E9" s="50" t="str">
@@ -4804,26 +4840,14 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="AF9" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG9" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AH9" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI9" s="139" t="s">
+      <c r="AF9" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="90" t="s">
+      <c r="AG9" s="90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.35">
       <c r="A10" s="175"/>
       <c r="B10" s="139"/>
       <c r="C10" s="175"/>
@@ -4912,13 +4936,10 @@
       <c r="AE10" s="52">
         <v>45735</v>
       </c>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="90"/>
-    </row>
-    <row r="11" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="90"/>
+    </row>
+    <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="66" t="s">
         <v>25</v>
       </c>
@@ -4952,99 +4973,52 @@
       <c r="AC11" s="54"/>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="73"/>
-    </row>
-    <row r="12" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A12" s="88" t="s">
-        <v>26</v>
-      </c>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="73"/>
+    </row>
+    <row r="12" spans="1:33" ht="153" x14ac:dyDescent="0.4">
+      <c r="A12" s="88"/>
       <c r="B12" s="89" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="57">
-        <v>0</v>
-      </c>
-      <c r="F12" s="57">
-        <v>0</v>
-      </c>
-      <c r="G12" s="50">
-        <v>8</v>
-      </c>
-      <c r="H12" s="57">
-        <v>5</v>
-      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
-      <c r="K12" s="50">
-        <v>3</v>
-      </c>
+      <c r="K12" s="50"/>
       <c r="L12" s="50"/>
-      <c r="M12" s="50">
-        <v>3</v>
-      </c>
-      <c r="N12" s="50">
-        <v>2</v>
-      </c>
-      <c r="O12" s="50">
-        <v>4</v>
-      </c>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="50"/>
-      <c r="R12" s="50">
-        <v>2</v>
-      </c>
+      <c r="R12" s="50"/>
       <c r="S12" s="50"/>
-      <c r="T12" s="50">
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="58">
+        <f>SUM(D12:AE12)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="50">
-        <v>2</v>
-      </c>
-      <c r="V12" s="50">
-        <v>1</v>
-      </c>
-      <c r="W12" s="50">
-        <v>1</v>
-      </c>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="50">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="50">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="58">
-        <f>SUM(D12:AH12)</f>
-        <v>43</v>
-      </c>
-      <c r="AJ12" s="73"/>
-    </row>
-    <row r="13" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="B13" s="89" t="s">
-        <v>28</v>
-      </c>
+      <c r="AG12" s="73"/>
+    </row>
+    <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
@@ -5053,73 +5027,36 @@
       <c r="H13" s="57"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="50">
-        <v>1</v>
-      </c>
+      <c r="K13" s="50"/>
       <c r="L13" s="50"/>
-      <c r="M13" s="50">
-        <v>1</v>
-      </c>
-      <c r="N13" s="50">
-        <v>4</v>
-      </c>
-      <c r="O13" s="50">
-        <v>3</v>
-      </c>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
-      <c r="R13" s="50">
-        <v>4</v>
-      </c>
+      <c r="R13" s="50"/>
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="50">
-        <v>4</v>
-      </c>
-      <c r="V13" s="50">
-        <v>4</v>
-      </c>
-      <c r="W13" s="50">
-        <v>4</v>
-      </c>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="50">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="50">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="50">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="50">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="50">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="50">
-        <v>2</v>
-      </c>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
       <c r="AE13" s="50"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57">
-        <v>3</v>
-      </c>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="58">
-        <f>SUM(D13:AH13)</f>
-        <v>45</v>
-      </c>
-      <c r="AJ13" s="73"/>
-    </row>
-    <row r="14" spans="1:36" ht="34" x14ac:dyDescent="0.4">
-      <c r="A14" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>30</v>
-      </c>
+      <c r="AF13" s="58">
+        <f t="shared" ref="AF13:AF60" si="1">SUM(D13:AE13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="73"/>
+    </row>
+    <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
@@ -5128,69 +5065,36 @@
       <c r="H14" s="57"/>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
-      <c r="K14" s="50">
-        <v>2</v>
-      </c>
+      <c r="K14" s="50"/>
       <c r="L14" s="50"/>
-      <c r="M14" s="50">
-        <v>1</v>
-      </c>
-      <c r="N14" s="50">
-        <v>1</v>
-      </c>
-      <c r="O14" s="50">
-        <v>1</v>
-      </c>
-      <c r="P14" s="50">
-        <v>6</v>
-      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
-      <c r="R14" s="50">
-        <v>1</v>
-      </c>
+      <c r="R14" s="50"/>
       <c r="S14" s="50"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="50">
-        <v>1</v>
-      </c>
-      <c r="V14" s="50">
-        <v>1</v>
-      </c>
-      <c r="W14" s="50">
-        <v>1</v>
-      </c>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
       <c r="X14" s="50"/>
-      <c r="Y14" s="50">
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="58">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="50">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="50">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="50">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="58">
-        <f>SUM(D14:AH14)</f>
-        <v>22</v>
-      </c>
-      <c r="AJ14" s="73"/>
-    </row>
-    <row r="15" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A15" s="67"/>
-      <c r="B15" s="56"/>
+      <c r="AG14" s="73"/>
+    </row>
+    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
@@ -5220,15 +5124,15 @@
       <c r="AC15" s="50"/>
       <c r="AD15" s="50"/>
       <c r="AE15" s="50"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="73"/>
-    </row>
-    <row r="16" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
-      <c r="B16" s="56"/>
+      <c r="AF15" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="73"/>
+    </row>
+    <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
@@ -5258,159 +5162,106 @@
       <c r="AC16" s="50"/>
       <c r="AD16" s="50"/>
       <c r="AE16" s="50"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="73"/>
-    </row>
-    <row r="17" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="73"/>
-    </row>
-    <row r="18" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A18" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>34</v>
-      </c>
+      <c r="AF16" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="73"/>
+    </row>
+    <row r="17" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="73"/>
+    </row>
+    <row r="18" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="57"/>
-      <c r="E18" s="57">
-        <v>0</v>
-      </c>
-      <c r="F18" s="57">
-        <v>0</v>
-      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="57">
-        <v>3</v>
-      </c>
+      <c r="H18" s="57"/>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
-      <c r="K18" s="50">
-        <v>1</v>
-      </c>
+      <c r="K18" s="50"/>
       <c r="L18" s="50"/>
-      <c r="M18" s="50">
-        <v>2</v>
-      </c>
+      <c r="M18" s="50"/>
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="50"/>
-      <c r="R18" s="50">
-        <v>1</v>
-      </c>
+      <c r="R18" s="50"/>
       <c r="S18" s="50"/>
       <c r="T18" s="50"/>
-      <c r="U18" s="50">
-        <v>1</v>
-      </c>
-      <c r="V18" s="50">
-        <v>2</v>
-      </c>
-      <c r="W18" s="50">
-        <v>2</v>
-      </c>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
       <c r="X18" s="50"/>
-      <c r="Y18" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="50">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="50">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="50">
-        <v>2</v>
-      </c>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
       <c r="AC18" s="50"/>
-      <c r="AD18" s="50">
-        <v>4</v>
-      </c>
+      <c r="AD18" s="50"/>
       <c r="AE18" s="50"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="58">
-        <f>SUM(D18:AH18)</f>
-        <v>25</v>
-      </c>
-      <c r="AJ18" s="73"/>
-    </row>
-    <row r="19" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A19" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>36</v>
-      </c>
+      <c r="AF18" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="73"/>
+    </row>
+    <row r="19" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="50"/>
       <c r="H19" s="57"/>
-      <c r="I19" s="50">
-        <v>2</v>
-      </c>
+      <c r="I19" s="50"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="50">
-        <v>1</v>
-      </c>
+      <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
-      <c r="P19" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="50">
-        <v>1</v>
-      </c>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="50"/>
       <c r="T19" s="50"/>
@@ -5418,62 +5269,37 @@
       <c r="V19" s="50"/>
       <c r="W19" s="50"/>
       <c r="X19" s="50"/>
-      <c r="Y19" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="50">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
       <c r="AA19" s="50"/>
       <c r="AB19" s="50"/>
       <c r="AC19" s="50"/>
       <c r="AD19" s="50"/>
       <c r="AE19" s="50"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="58">
-        <f>SUM(D19:AH19)</f>
-        <v>7</v>
-      </c>
-      <c r="AJ19" s="73"/>
-    </row>
-    <row r="20" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A20" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>37</v>
-      </c>
+      <c r="AF19" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="73"/>
+    </row>
+    <row r="20" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
       <c r="G20" s="50"/>
       <c r="H20" s="57"/>
-      <c r="I20" s="50">
-        <v>2</v>
-      </c>
+      <c r="I20" s="50"/>
       <c r="J20" s="50"/>
-      <c r="K20" s="50">
-        <v>2</v>
-      </c>
+      <c r="K20" s="50"/>
       <c r="L20" s="50"/>
-      <c r="M20" s="50">
-        <v>1</v>
-      </c>
-      <c r="N20" s="50">
-        <v>3</v>
-      </c>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="50"/>
-      <c r="P20" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="50">
-        <v>1</v>
-      </c>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="50"/>
       <c r="T20" s="50"/>
@@ -5481,80 +5307,63 @@
       <c r="V20" s="50"/>
       <c r="W20" s="50"/>
       <c r="X20" s="50"/>
-      <c r="Y20" s="50">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="50">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
       <c r="AB20" s="50"/>
       <c r="AC20" s="50"/>
-      <c r="AD20" s="50">
-        <v>1</v>
-      </c>
+      <c r="AD20" s="50"/>
       <c r="AE20" s="50"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="58">
-        <f>SUM(D20:AH20)</f>
-        <v>18</v>
-      </c>
-      <c r="AJ20" s="73"/>
-    </row>
-    <row r="21" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="68"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="73"/>
-    </row>
-    <row r="22" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178"/>
+      <c r="AF20" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="73"/>
+    </row>
+    <row r="21" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="73"/>
+    </row>
+    <row r="22" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="57"/>
-      <c r="E22" s="57">
-        <v>8</v>
-      </c>
+      <c r="E22" s="57"/>
       <c r="F22" s="57"/>
       <c r="G22" s="50"/>
       <c r="H22" s="57"/>
@@ -5569,9 +5378,7 @@
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
       <c r="S22" s="50"/>
-      <c r="T22" s="50">
-        <v>8</v>
-      </c>
+      <c r="T22" s="50"/>
       <c r="U22" s="50"/>
       <c r="V22" s="50"/>
       <c r="W22" s="50"/>
@@ -5583,34 +5390,25 @@
       <c r="AC22" s="50"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="58">
-        <f>SUM(D22:AH22)</f>
-        <v>16</v>
-      </c>
-      <c r="AJ22" s="73"/>
-    </row>
-    <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="176" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
+      <c r="AF22" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="73"/>
+    </row>
+    <row r="23" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
-      <c r="F23" s="57">
-        <v>8</v>
-      </c>
+      <c r="F23" s="57"/>
       <c r="G23" s="50"/>
       <c r="H23" s="57"/>
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
-      <c r="L23" s="50">
-        <v>8</v>
-      </c>
+      <c r="L23" s="50"/>
       <c r="M23" s="50"/>
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
@@ -5630,21 +5428,16 @@
       <c r="AC23" s="50"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="58">
-        <f>SUM(D23:AH23)</f>
-        <v>16</v>
-      </c>
-      <c r="AJ23" s="73"/>
-    </row>
-    <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="179" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
+      <c r="AF23" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="73"/>
+    </row>
+    <row r="24" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
@@ -5660,9 +5453,7 @@
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
-      <c r="S24" s="50">
-        <v>8</v>
-      </c>
+      <c r="S24" s="50"/>
       <c r="T24" s="50"/>
       <c r="U24" s="50"/>
       <c r="V24" s="50"/>
@@ -5675,700 +5466,2374 @@
       <c r="AC24" s="50"/>
       <c r="AD24" s="50"/>
       <c r="AE24" s="50"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="58">
-        <f>SUM(D24:AH24)</f>
-        <v>8</v>
-      </c>
-      <c r="AJ24" s="73"/>
-    </row>
-    <row r="25" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="176" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="57">
-        <f t="shared" ref="D25:AB25" si="1">SUM(D11:D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="57">
+      <c r="AF24" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="57">
+      <c r="AG24" s="73"/>
+    </row>
+    <row r="25" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="57">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H25" s="57">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I25" s="50">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J25" s="50">
+      <c r="AG25" s="73"/>
+    </row>
+    <row r="26" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="50">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L25" s="50">
+      <c r="AG26" s="73"/>
+    </row>
+    <row r="27" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="N25" s="50">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O25" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P25" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="Q25" s="50">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R25" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="S25" s="50">
+      <c r="AG27" s="73"/>
+    </row>
+    <row r="28" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T25" s="50">
+      <c r="AG28" s="73"/>
+    </row>
+    <row r="29" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="V25" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="W25" s="50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="X25" s="50">
+      <c r="AG29" s="73"/>
+    </row>
+    <row r="30" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A30" s="88"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="50">
+      <c r="AG30" s="73"/>
+    </row>
+    <row r="31" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="58">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Z25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="73"/>
+    </row>
+    <row r="32" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A32" s="88"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="58">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AA25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="73"/>
+    </row>
+    <row r="33" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A33" s="88"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="58">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="73"/>
+    </row>
+    <row r="34" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A34" s="88"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="73"/>
+    </row>
+    <row r="35" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A35" s="88"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="73"/>
+    </row>
+    <row r="36" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A36" s="88"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="73"/>
+    </row>
+    <row r="37" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A37" s="88"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="73"/>
+    </row>
+    <row r="38" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A38" s="88"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="73"/>
+    </row>
+    <row r="39" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A39" s="88"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="73"/>
+    </row>
+    <row r="40" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A40" s="88"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="73"/>
+    </row>
+    <row r="41" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A41" s="88"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="73"/>
+    </row>
+    <row r="42" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A42" s="88"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="73"/>
+    </row>
+    <row r="43" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A43" s="88"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="73"/>
+    </row>
+    <row r="44" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A44" s="88"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="73"/>
+    </row>
+    <row r="45" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="50"/>
+      <c r="AE45" s="50"/>
+      <c r="AF45" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="73"/>
+    </row>
+    <row r="46" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A46" s="88"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="73"/>
+    </row>
+    <row r="47" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A47" s="88"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50"/>
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="50"/>
+      <c r="AD47" s="50"/>
+      <c r="AE47" s="50"/>
+      <c r="AF47" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="73"/>
+    </row>
+    <row r="48" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="50"/>
+      <c r="X48" s="50"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="73"/>
+    </row>
+    <row r="49" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="73"/>
+    </row>
+    <row r="50" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A50" s="88"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="73"/>
+    </row>
+    <row r="51" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A51" s="88"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="73"/>
+    </row>
+    <row r="52" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="73"/>
+    </row>
+    <row r="53" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="50"/>
+      <c r="AD53" s="50"/>
+      <c r="AE53" s="50"/>
+      <c r="AF53" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="73"/>
+    </row>
+    <row r="54" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A54" s="88"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="50"/>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="50"/>
+      <c r="AD54" s="50"/>
+      <c r="AE54" s="50"/>
+      <c r="AF54" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="73"/>
+    </row>
+    <row r="55" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A55" s="88"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="73"/>
+    </row>
+    <row r="56" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A56" s="88"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
+      <c r="AD56" s="50"/>
+      <c r="AE56" s="50"/>
+      <c r="AF56" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="73"/>
+    </row>
+    <row r="57" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="B57" s="89"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="50"/>
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="50"/>
+      <c r="AE57" s="50"/>
+      <c r="AF57" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="73"/>
+    </row>
+    <row r="58" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
+      <c r="AD58" s="50"/>
+      <c r="AE58" s="50"/>
+      <c r="AF58" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="73"/>
+    </row>
+    <row r="59" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A59" s="67"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="50"/>
+      <c r="U59" s="50"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="50"/>
+      <c r="X59" s="50"/>
+      <c r="Y59" s="50"/>
+      <c r="Z59" s="50"/>
+      <c r="AA59" s="50"/>
+      <c r="AB59" s="50"/>
+      <c r="AC59" s="50"/>
+      <c r="AD59" s="50"/>
+      <c r="AE59" s="50"/>
+      <c r="AF59" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="73"/>
+    </row>
+    <row r="60" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A60" s="67"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="50"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="50"/>
+      <c r="AD60" s="50"/>
+      <c r="AE60" s="50"/>
+      <c r="AF60" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="73"/>
+    </row>
+    <row r="61" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A61" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="59"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="73"/>
+    </row>
+    <row r="62" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A62" s="67"/>
+      <c r="B62" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="57">
+        <v>1</v>
+      </c>
+      <c r="E62" s="57">
+        <v>1</v>
+      </c>
+      <c r="F62" s="57"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="57">
+        <v>1</v>
+      </c>
+      <c r="I62" s="50">
+        <v>1</v>
+      </c>
+      <c r="J62" s="50">
+        <v>1</v>
+      </c>
+      <c r="K62" s="50">
+        <v>1</v>
+      </c>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50">
+        <v>1</v>
+      </c>
+      <c r="P62" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="50">
+        <v>1</v>
+      </c>
+      <c r="R62" s="50">
+        <v>1</v>
+      </c>
+      <c r="S62" s="50">
+        <v>1</v>
+      </c>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50">
+        <v>1</v>
+      </c>
+      <c r="W62" s="50">
+        <v>1</v>
+      </c>
+      <c r="X62" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="50"/>
+      <c r="AC62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="50">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="58">
+        <f>SUM(D62:AE62)</f>
+        <v>19</v>
+      </c>
+      <c r="AG62" s="73"/>
+    </row>
+    <row r="63" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A63" s="67"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="50"/>
+      <c r="V63" s="50"/>
+      <c r="W63" s="50"/>
+      <c r="X63" s="50"/>
+      <c r="Y63" s="50"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="50"/>
+      <c r="AB63" s="50"/>
+      <c r="AC63" s="50"/>
+      <c r="AD63" s="50"/>
+      <c r="AE63" s="50"/>
+      <c r="AF63" s="58">
+        <f>SUM(D63:AE63)</f>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="73"/>
+    </row>
+    <row r="64" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A64" s="67"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="50"/>
+      <c r="AC64" s="50"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="50"/>
+      <c r="AF64" s="58">
+        <f>SUM(D64:AE64)</f>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="73"/>
+    </row>
+    <row r="65" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="68"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="61"/>
+      <c r="AF65" s="62"/>
+      <c r="AG65" s="73"/>
+    </row>
+    <row r="66" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A66" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="177"/>
+      <c r="C66" s="178"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="50"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Y66" s="50"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="50"/>
+      <c r="AD66" s="50"/>
+      <c r="AE66" s="50"/>
+      <c r="AF66" s="58">
+        <f>SUM(D66:AE66)</f>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="73"/>
+    </row>
+    <row r="67" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A67" s="176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="177"/>
+      <c r="C67" s="178"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50">
         <v>8</v>
       </c>
-      <c r="AB25" s="50">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AC25" s="50">
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="50"/>
+      <c r="V67" s="50"/>
+      <c r="W67" s="50"/>
+      <c r="X67" s="50"/>
+      <c r="Y67" s="50"/>
+      <c r="Z67" s="50"/>
+      <c r="AA67" s="50"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="50"/>
+      <c r="AD67" s="50"/>
+      <c r="AE67" s="50"/>
+      <c r="AF67" s="58">
+        <f>SUM(D67:AE67)</f>
         <v>8</v>
       </c>
-      <c r="AD25" s="50">
-        <f>SUM(AD11:AD20)</f>
-        <v>8</v>
-      </c>
-      <c r="AE25" s="50">
-        <f>SUM(AE11:AE20)</f>
+      <c r="AG67" s="73"/>
+    </row>
+    <row r="68" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A68" s="179" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="180"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="50"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="50"/>
+      <c r="AA68" s="50"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="50"/>
+      <c r="AD68" s="50"/>
+      <c r="AE68" s="50"/>
+      <c r="AF68" s="58">
+        <f>SUM(D68:AE68)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="57">
-        <f>SUM(AF11:AF20)</f>
+      <c r="AG68" s="73"/>
+    </row>
+    <row r="69" spans="1:33" ht="17" x14ac:dyDescent="0.4">
+      <c r="A69" s="176" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="177"/>
+      <c r="C69" s="178"/>
+      <c r="D69" s="57">
+        <f t="shared" ref="D69:AC69" si="2">SUM(D11:D64)</f>
+        <v>1</v>
+      </c>
+      <c r="E69" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="57">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="57">
-        <f>SUM(AG11:AG20)</f>
-        <v>8</v>
-      </c>
-      <c r="AH25" s="57">
-        <f>SUM(AH11:AH20)</f>
+      <c r="G69" s="57">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI25" s="58">
-        <f>SUM(D25:AH25)</f>
-        <v>163</v>
-      </c>
-      <c r="AJ25" s="73"/>
-    </row>
-    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:36" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="91"/>
-      <c r="B27" s="92" t="s">
+      <c r="H69" s="57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L69" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T69" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA69" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD69" s="50">
+        <f>SUM(AD11:AD64)</f>
+        <v>1</v>
+      </c>
+      <c r="AE69" s="50">
+        <f>SUM(AE11:AE64)</f>
+        <v>1</v>
+      </c>
+      <c r="AF69" s="58">
+        <f>SUM(D69:AE69)</f>
+        <v>19</v>
+      </c>
+      <c r="AG69" s="73"/>
+    </row>
+    <row r="70" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="1:33" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="91"/>
+      <c r="B71" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="S27" s="196" t="s">
+      <c r="D71" s="4"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="143"/>
+      <c r="J71" s="143"/>
+      <c r="S71" s="196" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="197"/>
-      <c r="U27" s="197"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="197"/>
-      <c r="Y27" s="197"/>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="198"/>
-      <c r="AC27" s="182" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="183"/>
-      <c r="AF27" s="183"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="183"/>
-      <c r="AJ27" s="184"/>
-    </row>
-    <row r="28" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="69"/>
-      <c r="B28" s="49" t="s">
+      <c r="T71" s="197"/>
+      <c r="U71" s="197"/>
+      <c r="V71" s="197"/>
+      <c r="W71" s="197"/>
+      <c r="X71" s="197"/>
+      <c r="Y71" s="197"/>
+      <c r="Z71" s="197"/>
+      <c r="AA71" s="198"/>
+      <c r="AC71" s="182" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD71" s="183"/>
+      <c r="AE71" s="183"/>
+      <c r="AF71" s="183"/>
+      <c r="AG71" s="184"/>
+    </row>
+    <row r="72" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="69"/>
+      <c r="B72" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="S28" s="185" t="s">
+      <c r="E72" s="143"/>
+      <c r="F72" s="143"/>
+      <c r="G72" s="143"/>
+      <c r="H72" s="143"/>
+      <c r="I72" s="143"/>
+      <c r="J72" s="143"/>
+      <c r="S72" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="186"/>
-      <c r="U28" s="187" t="s">
-        <v>47</v>
-      </c>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="188"/>
-      <c r="AC28" s="159" t="s">
+      <c r="T72" s="186"/>
+      <c r="U72" s="187" t="s">
+        <v>169</v>
+      </c>
+      <c r="V72" s="187"/>
+      <c r="W72" s="187"/>
+      <c r="X72" s="187"/>
+      <c r="Y72" s="187"/>
+      <c r="Z72" s="187"/>
+      <c r="AA72" s="188"/>
+      <c r="AC72" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="146"/>
-    </row>
-    <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="70"/>
-      <c r="B29" s="49" t="s">
+      <c r="AD72" s="145"/>
+      <c r="AE72" s="145"/>
+      <c r="AF72" s="145"/>
+      <c r="AG72" s="146"/>
+    </row>
+    <row r="73" spans="1:33" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="70"/>
+      <c r="B73" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="187"/>
-      <c r="Z29" s="187"/>
-      <c r="AA29" s="188"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="148"/>
-      <c r="AG29" s="148"/>
-      <c r="AH29" s="148"/>
-      <c r="AI29" s="148"/>
-      <c r="AJ29" s="149"/>
-    </row>
-    <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71"/>
-      <c r="B30" s="49" t="s">
+      <c r="E73" s="143"/>
+      <c r="F73" s="143"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="143"/>
+      <c r="J73" s="143"/>
+      <c r="S73" s="185"/>
+      <c r="T73" s="186"/>
+      <c r="U73" s="187"/>
+      <c r="V73" s="187"/>
+      <c r="W73" s="187"/>
+      <c r="X73" s="187"/>
+      <c r="Y73" s="187"/>
+      <c r="Z73" s="187"/>
+      <c r="AA73" s="188"/>
+      <c r="AC73" s="160"/>
+      <c r="AD73" s="148"/>
+      <c r="AE73" s="148"/>
+      <c r="AF73" s="148"/>
+      <c r="AG73" s="149"/>
+    </row>
+    <row r="74" spans="1:33" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="71"/>
+      <c r="B74" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="186"/>
-      <c r="U30" s="187"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="187"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="187"/>
-      <c r="Z30" s="187"/>
-      <c r="AA30" s="188"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="148"/>
-      <c r="AG30" s="148"/>
-      <c r="AH30" s="148"/>
-      <c r="AI30" s="148"/>
-      <c r="AJ30" s="149"/>
-    </row>
-    <row r="31" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S31" s="185"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="187"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="187"/>
-      <c r="Z31" s="187"/>
-      <c r="AA31" s="188"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="148"/>
-      <c r="AG31" s="148"/>
-      <c r="AH31" s="148"/>
-      <c r="AI31" s="148"/>
-      <c r="AJ31" s="149"/>
-    </row>
-    <row r="32" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="72" t="s">
+      <c r="E74" s="143"/>
+      <c r="F74" s="143"/>
+      <c r="G74" s="143"/>
+      <c r="H74" s="143"/>
+      <c r="I74" s="143"/>
+      <c r="J74" s="143"/>
+      <c r="S74" s="185"/>
+      <c r="T74" s="186"/>
+      <c r="U74" s="187"/>
+      <c r="V74" s="187"/>
+      <c r="W74" s="187"/>
+      <c r="X74" s="187"/>
+      <c r="Y74" s="187"/>
+      <c r="Z74" s="187"/>
+      <c r="AA74" s="188"/>
+      <c r="AC74" s="160"/>
+      <c r="AD74" s="148"/>
+      <c r="AE74" s="148"/>
+      <c r="AF74" s="148"/>
+      <c r="AG74" s="149"/>
+    </row>
+    <row r="75" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S75" s="185"/>
+      <c r="T75" s="186"/>
+      <c r="U75" s="187"/>
+      <c r="V75" s="187"/>
+      <c r="W75" s="187"/>
+      <c r="X75" s="187"/>
+      <c r="Y75" s="187"/>
+      <c r="Z75" s="187"/>
+      <c r="AA75" s="188"/>
+      <c r="AC75" s="160"/>
+      <c r="AD75" s="148"/>
+      <c r="AE75" s="148"/>
+      <c r="AF75" s="148"/>
+      <c r="AG75" s="149"/>
+    </row>
+    <row r="76" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="186"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="187"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="188"/>
-      <c r="AC32" s="189"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="190"/>
-      <c r="AF32" s="190"/>
-      <c r="AG32" s="190"/>
-      <c r="AH32" s="190"/>
-      <c r="AI32" s="190"/>
-      <c r="AJ32" s="191"/>
-    </row>
-    <row r="33" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="140" t="s">
+      <c r="B76" s="46"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="S76" s="185"/>
+      <c r="T76" s="186"/>
+      <c r="U76" s="187"/>
+      <c r="V76" s="187"/>
+      <c r="W76" s="187"/>
+      <c r="X76" s="187"/>
+      <c r="Y76" s="187"/>
+      <c r="Z76" s="187"/>
+      <c r="AA76" s="188"/>
+      <c r="AC76" s="189"/>
+      <c r="AD76" s="190"/>
+      <c r="AE76" s="190"/>
+      <c r="AF76" s="190"/>
+      <c r="AG76" s="191"/>
+    </row>
+    <row r="77" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="140"/>
-      <c r="C33" s="63">
-        <f>COUNTIF(D24:AH24,"=8")</f>
+      <c r="B77" s="140"/>
+      <c r="C77" s="63">
+        <f>COUNTIF(D68:AE68,"=8")</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="S77" s="185" t="s">
+        <v>53</v>
+      </c>
+      <c r="T77" s="186"/>
+      <c r="U77" s="187" t="s">
+        <v>170</v>
+      </c>
+      <c r="V77" s="187"/>
+      <c r="W77" s="187"/>
+      <c r="X77" s="187"/>
+      <c r="Y77" s="187"/>
+      <c r="Z77" s="187"/>
+      <c r="AA77" s="188"/>
+      <c r="AC77" s="160" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD77" s="148"/>
+      <c r="AE77" s="148"/>
+      <c r="AF77" s="148"/>
+      <c r="AG77" s="149"/>
+    </row>
+    <row r="78" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="47"/>
+      <c r="C78" s="64">
+        <f>NETWORKDAYS(B2,B3)-C77</f>
+        <v>20</v>
+      </c>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="S78" s="185"/>
+      <c r="T78" s="186"/>
+      <c r="U78" s="187"/>
+      <c r="V78" s="187"/>
+      <c r="W78" s="187"/>
+      <c r="X78" s="187"/>
+      <c r="Y78" s="187"/>
+      <c r="Z78" s="187"/>
+      <c r="AA78" s="188"/>
+      <c r="AC78" s="160"/>
+      <c r="AD78" s="148"/>
+      <c r="AE78" s="148"/>
+      <c r="AF78" s="148"/>
+      <c r="AG78" s="149"/>
+    </row>
+    <row r="79" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="47"/>
+      <c r="C79" s="63">
+        <f>AF67/8</f>
         <v>1</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="S33" s="185" t="s">
-        <v>53</v>
-      </c>
-      <c r="T33" s="186"/>
-      <c r="U33" s="187" t="s">
-        <v>54</v>
-      </c>
-      <c r="V33" s="187"/>
-      <c r="W33" s="187"/>
-      <c r="X33" s="187"/>
-      <c r="Y33" s="187"/>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="188"/>
-      <c r="AC33" s="160" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="148"/>
-      <c r="AH33" s="148"/>
-      <c r="AI33" s="148"/>
-      <c r="AJ33" s="149"/>
-    </row>
-    <row r="34" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="64">
-        <f>NETWORKDAYS(B2,B3)-C33</f>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="S79" s="185"/>
+      <c r="T79" s="186"/>
+      <c r="U79" s="187"/>
+      <c r="V79" s="187"/>
+      <c r="W79" s="187"/>
+      <c r="X79" s="187"/>
+      <c r="Y79" s="187"/>
+      <c r="Z79" s="187"/>
+      <c r="AA79" s="188"/>
+      <c r="AC79" s="160"/>
+      <c r="AD79" s="148"/>
+      <c r="AE79" s="148"/>
+      <c r="AF79" s="148"/>
+      <c r="AG79" s="149"/>
+    </row>
+    <row r="80" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="47"/>
+      <c r="C80" s="63">
+        <f>AF66/8</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="S80" s="185"/>
+      <c r="T80" s="186"/>
+      <c r="U80" s="187"/>
+      <c r="V80" s="187"/>
+      <c r="W80" s="187"/>
+      <c r="X80" s="187"/>
+      <c r="Y80" s="187"/>
+      <c r="Z80" s="187"/>
+      <c r="AA80" s="188"/>
+      <c r="AC80" s="160"/>
+      <c r="AD80" s="148"/>
+      <c r="AE80" s="148"/>
+      <c r="AF80" s="148"/>
+      <c r="AG80" s="149"/>
+    </row>
+    <row r="81" spans="1:33" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="174"/>
+      <c r="C81" s="63">
+        <f>COUNTIF(D69:AE69,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="S34" s="185"/>
-      <c r="T34" s="186"/>
-      <c r="U34" s="187"/>
-      <c r="V34" s="187"/>
-      <c r="W34" s="187"/>
-      <c r="X34" s="187"/>
-      <c r="Y34" s="187"/>
-      <c r="Z34" s="187"/>
-      <c r="AA34" s="188"/>
-      <c r="AC34" s="160"/>
-      <c r="AD34" s="148"/>
-      <c r="AE34" s="148"/>
-      <c r="AF34" s="148"/>
-      <c r="AG34" s="148"/>
-      <c r="AH34" s="148"/>
-      <c r="AI34" s="148"/>
-      <c r="AJ34" s="149"/>
-    </row>
-    <row r="35" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="63">
-        <f>AI23/8</f>
-        <v>2</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="S35" s="185"/>
-      <c r="T35" s="186"/>
-      <c r="U35" s="187"/>
-      <c r="V35" s="187"/>
-      <c r="W35" s="187"/>
-      <c r="X35" s="187"/>
-      <c r="Y35" s="187"/>
-      <c r="Z35" s="187"/>
-      <c r="AA35" s="188"/>
-      <c r="AC35" s="160"/>
-      <c r="AD35" s="148"/>
-      <c r="AE35" s="148"/>
-      <c r="AF35" s="148"/>
-      <c r="AG35" s="148"/>
-      <c r="AH35" s="148"/>
-      <c r="AI35" s="148"/>
-      <c r="AJ35" s="149"/>
-    </row>
-    <row r="36" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="63">
-        <f>AI22/8</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="S36" s="185"/>
-      <c r="T36" s="186"/>
-      <c r="U36" s="187"/>
-      <c r="V36" s="187"/>
-      <c r="W36" s="187"/>
-      <c r="X36" s="187"/>
-      <c r="Y36" s="187"/>
-      <c r="Z36" s="187"/>
-      <c r="AA36" s="188"/>
-      <c r="AC36" s="160"/>
-      <c r="AD36" s="148"/>
-      <c r="AE36" s="148"/>
-      <c r="AF36" s="148"/>
-      <c r="AG36" s="148"/>
-      <c r="AH36" s="148"/>
-      <c r="AI36" s="148"/>
-      <c r="AJ36" s="149"/>
-    </row>
-    <row r="37" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="174" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="174"/>
-      <c r="C37" s="63">
-        <f>COUNTIF(D25:AH25,"&gt;0")</f>
-        <v>20</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="S37" s="192"/>
-      <c r="T37" s="193"/>
-      <c r="U37" s="194"/>
-      <c r="V37" s="194"/>
-      <c r="W37" s="194"/>
-      <c r="X37" s="194"/>
-      <c r="Y37" s="194"/>
-      <c r="Z37" s="194"/>
-      <c r="AA37" s="195"/>
-      <c r="AC37" s="161"/>
-      <c r="AD37" s="151"/>
-      <c r="AE37" s="151"/>
-      <c r="AF37" s="151"/>
-      <c r="AG37" s="151"/>
-      <c r="AH37" s="151"/>
-      <c r="AI37" s="151"/>
-      <c r="AJ37" s="152"/>
-    </row>
-    <row r="38" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="63" t="s">
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="S81" s="192"/>
+      <c r="T81" s="193"/>
+      <c r="U81" s="194"/>
+      <c r="V81" s="194"/>
+      <c r="W81" s="194"/>
+      <c r="X81" s="194"/>
+      <c r="Y81" s="194"/>
+      <c r="Z81" s="194"/>
+      <c r="AA81" s="195"/>
+      <c r="AC81" s="161"/>
+      <c r="AD81" s="151"/>
+      <c r="AE81" s="151"/>
+      <c r="AF81" s="151"/>
+      <c r="AG81" s="152"/>
+    </row>
+    <row r="82" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="65">
-        <f>C37/(C37+C35+C36)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="63"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="72" t="s">
+      <c r="B82" s="47"/>
+      <c r="C82" s="65">
+        <f>C81/(C81+C79+C80)</f>
+        <v>0.95</v>
+      </c>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+    </row>
+    <row r="83" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="63"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+    </row>
+    <row r="84" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-    </row>
-    <row r="41" spans="1:36" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="174" t="s">
+      <c r="B84" s="46"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="1:33" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="174"/>
-      <c r="C41" s="63">
-        <f>AI25</f>
-        <v>163</v>
-      </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-    </row>
-    <row r="42" spans="1:36" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="174" t="s">
+      <c r="B85" s="174"/>
+      <c r="C85" s="63">
+        <f>AF69</f>
+        <v>19</v>
+      </c>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+    </row>
+    <row r="86" spans="1:33" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="174"/>
-      <c r="C42" s="63">
+      <c r="B86" s="174"/>
+      <c r="C86" s="63">
         <v>39</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-    </row>
-    <row r="43" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="63" t="s">
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+    </row>
+    <row r="87" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A87" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="63">
-        <f>SUMIFS($AI$12:$AI$20, $C$12:$C$20, "Morning")</f>
-        <v>25</v>
-      </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-    </row>
-    <row r="44" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="63" t="s">
+      <c r="B87" s="48"/>
+      <c r="C87" s="63">
+        <f>SUMIFS($AF$12:$AF$64, $C$12:$C$64, "Morning")</f>
+        <v>19</v>
+      </c>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+    </row>
+    <row r="88" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A88" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="63">
-        <f>SUMIFS($AI$12:$AI$20, $C$12:$C$20, "Afternoon")</f>
-        <v>7</v>
-      </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-    </row>
-    <row r="45" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="63" t="s">
+      <c r="B88" s="48"/>
+      <c r="C88" s="63">
+        <f>SUMIFS($AF$12:$AF$64, $C$12:$C$64, "Afternoon")</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+    </row>
+    <row r="89" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="63">
-        <f>SUMIFS($AI$12:$AI$20, $C$12:$C$20, "Night")</f>
-        <v>18</v>
-      </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-    </row>
-    <row r="46" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="63"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="72" t="s">
+      <c r="B89" s="48"/>
+      <c r="C89" s="63">
+        <f>SUMIFS($AF$12:$AF$64, $C$12:$C$64, "Night")</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+    </row>
+    <row r="90" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A90" s="63"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+    </row>
+    <row r="91" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A91" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-    </row>
-    <row r="48" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="63" t="s">
+      <c r="B91" s="46"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+    </row>
+    <row r="92" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="63" t="s">
+      <c r="B92" s="47"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+    </row>
+    <row r="93" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A93" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="63"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-    </row>
-    <row r="52" spans="1:10" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+    </row>
+    <row r="94" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A94" s="63"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+    </row>
+    <row r="96" spans="1:33" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E27:J30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="AC27:AJ27"/>
-    <mergeCell ref="S28:T32"/>
-    <mergeCell ref="U28:AA32"/>
-    <mergeCell ref="AC28:AJ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="S33:T37"/>
-    <mergeCell ref="U33:AA37"/>
-    <mergeCell ref="AC33:AJ37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="S27:AA27"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="E71:J74"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="AC71:AG71"/>
+    <mergeCell ref="S72:T76"/>
+    <mergeCell ref="U72:AA76"/>
+    <mergeCell ref="AC72:AG76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="S77:T81"/>
+    <mergeCell ref="U77:AA81"/>
+    <mergeCell ref="AC77:AG81"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="S71:AA71"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -6380,15 +7845,15 @@
       <formula>TEXT(B3,"mmm")&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:AH20 D21:AF21 D22:AH25">
+  <conditionalFormatting sqref="D9:AE69">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>OR(D$9="Sat",D$9="Sun")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>D$24=8</formula>
+      <formula>D$68=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:AH25">
+  <conditionalFormatting sqref="D69:AE69">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -6459,7 +7924,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="94"/>
       <c r="D2" s="99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="99"/>
@@ -6517,7 +7982,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="94"/>
       <c r="D4" s="100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="100"/>
@@ -6600,11 +8065,11 @@
     </row>
     <row r="7" spans="1:26" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
@@ -6613,7 +8078,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="37"/>
       <c r="E8" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
@@ -6627,27 +8092,27 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="E10" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="F10" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="G10" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
@@ -6663,16 +8128,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="26" x14ac:dyDescent="0.35">
@@ -6683,16 +8148,16 @@
         <v>6</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -6701,19 +8166,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="G14" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="H14" s="23"/>
     </row>
@@ -6725,16 +8190,16 @@
         <v>18</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="H15" s="23"/>
     </row>
@@ -6746,16 +8211,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -6767,16 +8232,16 @@
         <v>14</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="23"/>
     </row>
@@ -6785,19 +8250,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="G18" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="23"/>
     </row>
@@ -6806,25 +8271,25 @@
         <v>8</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="96"/>
       <c r="D20" s="96"/>
@@ -6838,19 +8303,19 @@
         <v>9</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="G21" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="H21" s="24"/>
     </row>
@@ -6862,16 +8327,16 @@
         <v>21</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>119</v>
       </c>
       <c r="H22" s="24"/>
     </row>
@@ -6880,19 +8345,19 @@
         <v>11</v>
       </c>
       <c r="C23" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="G23" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -6901,19 +8366,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="F24" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="G24" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -6922,19 +8387,19 @@
         <v>13</v>
       </c>
       <c r="C25" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="G25" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -6943,23 +8408,23 @@
         <v>14</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" s="105"/>
       <c r="D27" s="105"/>
@@ -6976,10 +8441,10 @@
         <v>52</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="110"/>
       <c r="G28" s="111"/>
@@ -6993,10 +8458,10 @@
         <v>56</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" s="113"/>
       <c r="G29" s="114"/>
@@ -7010,10 +8475,10 @@
         <v>57</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F30" s="113"/>
       <c r="G30" s="114"/>
@@ -7027,10 +8492,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31" s="113"/>
       <c r="G31" s="114"/>
@@ -7044,10 +8509,10 @@
         <v>59</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="114"/>
@@ -7061,10 +8526,10 @@
         <v>60</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="114"/>
@@ -7078,10 +8543,10 @@
         <v>62</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="114"/>
@@ -7092,19 +8557,19 @@
         <v>22</v>
       </c>
       <c r="C35" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="G35" s="119" t="s">
         <v>146</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="119" t="s">
-        <v>148</v>
       </c>
       <c r="H35" s="24"/>
     </row>
@@ -7116,10 +8581,10 @@
         <v>64</v>
       </c>
       <c r="D36" s="121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F36" s="113"/>
       <c r="G36" s="114"/>
@@ -7133,10 +8598,10 @@
         <v>65</v>
       </c>
       <c r="D37" s="121" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37" s="113"/>
       <c r="G37" s="114"/>
@@ -7150,10 +8615,10 @@
         <v>66</v>
       </c>
       <c r="D38" s="121" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F38" s="113"/>
       <c r="G38" s="114"/>
@@ -7164,17 +8629,17 @@
         <v>26</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D39" s="122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E39" s="122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="121"/>
       <c r="G39" s="121" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H39" s="24"/>
     </row>
@@ -7183,19 +8648,19 @@
         <v>27</v>
       </c>
       <c r="C40" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="F40" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="119" t="s">
+      <c r="G40" s="119" t="s">
         <v>157</v>
-      </c>
-      <c r="F40" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="119" t="s">
-        <v>159</v>
       </c>
       <c r="H40" s="24"/>
     </row>
@@ -7204,19 +8669,19 @@
         <v>28</v>
       </c>
       <c r="C41" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="122" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="122" t="s">
+      <c r="F41" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="119" t="s">
+      <c r="G41" s="119" t="s">
         <v>162</v>
-      </c>
-      <c r="F41" s="122" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="119" t="s">
-        <v>164</v>
       </c>
       <c r="H41" s="24"/>
     </row>
@@ -7450,15 +8915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBBA4E8384962545BF977EF5EB207524" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c71af4b5276cc520d7caa7153b08011">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ecef1726-c816-4ce0-a2de-c7222e5e0303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d40dcfb130600d1adddbff1088e0e0d5" ns2:_="">
     <xsd:import namespace="ecef1726-c816-4ce0-a2de-c7222e5e0303"/>
@@ -7602,15 +9058,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A50F55-EB9E-48CA-A399-9CBC9253A5CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1BDC32-896F-448F-9DE0-A2D567D26AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7626,4 +9083,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A50F55-EB9E-48CA-A399-9CBC9253A5CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/15_Period_20_Feb_2025_sd_19_Mar_2025/Timesheet Danamon_Bayu Bagus Bagaswara_March.xlsx
+++ b/15_Period_20_Feb_2025_sd_19_Mar_2025/Timesheet Danamon_Bayu Bagus Bagaswara_March.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayub\Projects Bayu\TIMESHEET DANAMON BAYU\15_Period_20_Feb_2025_sd_19_Mar_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FA2F01-D343-4DD0-BF55-D60526499AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97971FC3-E3C2-42DE-B3B2-CBB0BD7946AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{287076C2-500C-4AE4-B01E-3C74A6B599A0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="207">
   <si>
     <t>Timesheet Period</t>
   </si>
@@ -735,7 +735,544 @@
     <t>Daily IT TFC</t>
   </si>
   <si>
-    <t>Create PlacementDataServiceImpl as layer service (logic). There are also several methods such as: create, getById, getByDateAndApprovalStatusIsNullOrPending, updatePlacementApprovalIdAndStatus, getByDate</t>
+    <r>
+      <t xml:space="preserve">Add a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateTransferPlacementController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> controller class to handle multiple endpoints of the data placement creation process.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createBulk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method to handle api/placement/create-bulk endpoint which processes bulk data placement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createSingle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method to handle api/placement/create-single endpoint which processes single data placement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateTransferPlacementService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> service interface. Add some contract methods: createBulk and createSingle. Each method has CreateBulkRequest and CreateSingleRequest object parameters, the response object is CreatePlacementResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Add an</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> InconsistentDataException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> exception class and register it to PlacementGlobalExceptionHandler to handle inconsistent data exceptions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Add a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PlacementApprovalController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class to handle multiple placement approval data endpoints.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>approvalPlacement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method to handle api/placement/approval endpoint that processes approved data placements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rejectedPlacement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method to handle api/placement/reject endpoint that processes rejected data placements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlacementApprovalService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> service interface. Add some contract methods: approvePlacement, rejectPlacement, and getAllData. Each method has a List&lt;Long&gt; placementId object parameter, the response object is PlacementApprovalResponse.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlacementApprovalServiceImpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implementation service. Add some method: approvePlacement, rejectPlacement, and getAllData. Implement business flow and logic to all methods. This service communicates with the placement_approval table in the database and middleware service.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add some methods in the PlacementApprovalServiceImpl: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>processInternalTransfer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>processExternalTransfer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add some methods in the PlacementApprovalServiceImpl: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createInquiryAccountRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createCreditTransferBiFastRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createOverbookingCasaRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createTransferSknRtgsRequest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add some methods in the PlacementApprovalServiceImpl: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saveNCBSRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saveNCBSResponse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateTransferPlacementServiceImpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implementation service. Add some method: createBulk, createSingle, validateBulkData, and validateTransferTypeEnum. Implement business flow and logic to all methods. This service communicates with the placement_approval table in the database.</t>
+    </r>
+  </si>
+  <si>
+    <t>Add DTO classes for InquiryAccount purpose, including: InquiryAccountData, InquiryAccountRequest, InquiryAccountResponse</t>
+  </si>
+  <si>
+    <t>Add DTO classes for CreditTransfer, including: CreditTransferData, CreditTransferRequest, CreditTransferResponse, SubStatusProvider</t>
+  </si>
+  <si>
+    <t>Add DTO classes for OverbookingCasa, including: OverbookingCasaData, OverbookingCasaRequest, OverbookingCasaResponse, SubStatusProvider</t>
+  </si>
+  <si>
+    <t>Add DTO classes for TransferSknRtgs, including: TransferSknRtgsData, TransferSknRtgsRequest, TransferSknRtgsResponse, SubStatusProvider, BdiXferBenefieciery, BankInfo, BdiXferXFOff, XferInfoFrom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WebClientConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> configuration to create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WebClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bean object that is used to make HTTP requests in a non-blocking and reactive manner</t>
+    </r>
+  </si>
+  <si>
+    <t>add values ​​in application.properties like all service URLs (InquiryAccount, OverbookingCasa, CreditTransfer, TransferSknRtgs), channelId, serviceCode, and bdiKey</t>
+  </si>
+  <si>
+    <t>Add NCBSRequestService interface. Add some methods: inquiryAccount, overbookingCasa, transferSknRtgs, and creditTransfer.</t>
+  </si>
+  <si>
+    <t>Add NCBSRequestServiceImpl implementation service. Add some methods: inquiryAccount, overbookingCasa, transferSknRtgs, creditTransfer, saveToDatabase, and isReferenceIdAlreadyExists . Implement business flow and logic to all methods. This service is used to store request data and send data to middleware.</t>
+  </si>
+  <si>
+    <t>Add NCBSRequestRepository to communicate with the ncbs_request table in the database, and also add the existsByReferenceId query method</t>
+  </si>
+  <si>
+    <t>add NCBSResponseService interace. Add some methods: saveToDatabase</t>
+  </si>
+  <si>
+    <t>add NCBSResponseServiceImpl implementation service. Add some methods: saveToDatabase. Implement business flow and logi to all methods. This service is used to save response data to database.</t>
+  </si>
+  <si>
+    <t>add NCBSResponseRepository to communicate with the ncbs_response table in the database</t>
+  </si>
+  <si>
+    <t>Add a MiddlewareService interface. Add some methods: inquiryAccount, overbookingCasa, transferSknRtgs, creditTransfer. Each method has request and response parameters that conform to the middleware API specification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add MiddlewareServiceImpl implemention service. Add some methods: inquiryAccount, creditTransferBiFast, overbookingCasa, transferSknRtgs, getCurrentTimestamp, computeHMACSHA512. Inject WebClientService, generateUniqueKey for externalId. Set request headers that conform to the middleware API specification.</t>
+  </si>
+  <si>
+    <t>add util class GenerateUniqueKey to create unique key based on timestamp + secure random + uuid</t>
+  </si>
+  <si>
+    <t>CRF - 8127 - CSA Release 10</t>
+  </si>
+  <si>
+    <t>CRF-7683 - DRO LKPBU LBABK</t>
+  </si>
+  <si>
+    <t>Preparation object and implementation DRO LKPBU - LBABK</t>
+  </si>
+  <si>
+    <t>PAT DRO LKPBU - LBABK monitoring after production. Include getDRO, insert data to the database, recon data, download all report txt file</t>
   </si>
 </sst>
 </file>
@@ -747,7 +1284,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +1446,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1538,7 +2082,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1941,6 +2485,21 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2123,6 +2682,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2761,12 +3338,12 @@
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="142" t="s">
+      <c r="N5" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
     </row>
     <row r="6" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
@@ -2791,12 +3368,12 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="141" t="s">
+      <c r="N6" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="1:35" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2819,13 +3396,13 @@
       <c r="Q7" s="76"/>
     </row>
     <row r="9" spans="1:35" ht="17" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="180" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
@@ -2948,7 +3525,7 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="AH9" s="139" t="s">
+      <c r="AH9" s="144" t="s">
         <v>23</v>
       </c>
       <c r="AI9" s="90" t="s">
@@ -2956,9 +3533,9 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="175"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="175"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="180"/>
       <c r="D10" s="51" cm="1">
         <f t="array" ref="D10:AG10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
         <v>45536</v>
@@ -3050,7 +3627,7 @@
       <c r="AG10" s="51">
         <v>45565</v>
       </c>
-      <c r="AH10" s="139"/>
+      <c r="AH10" s="144"/>
       <c r="AI10" s="90"/>
     </row>
     <row r="11" spans="1:35" ht="17" x14ac:dyDescent="0.4">
@@ -3662,11 +4239,11 @@
       <c r="AI21" s="73"/>
     </row>
     <row r="22" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57">
         <v>8</v>
@@ -3710,11 +4287,11 @@
       <c r="AI22" s="73"/>
     </row>
     <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57">
@@ -3754,11 +4331,11 @@
       <c r="AI23" s="73"/>
     </row>
     <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="181"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
@@ -3798,11 +4375,11 @@
       <c r="AI24" s="73"/>
     </row>
     <row r="25" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57">
         <f t="shared" ref="E25:AB25" si="1">SUM(E11:E20)</f>
@@ -3933,145 +4510,145 @@
         <v>42</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="S27" s="162" t="s">
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="S27" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="164"/>
-      <c r="AC27" s="170" t="s">
+      <c r="T27" s="168"/>
+      <c r="U27" s="168"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="168"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="169"/>
+      <c r="AC27" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="AD27" s="171"/>
-      <c r="AE27" s="171"/>
-      <c r="AF27" s="171"/>
-      <c r="AG27" s="171"/>
-      <c r="AH27" s="171"/>
-      <c r="AI27" s="171"/>
-      <c r="AJ27" s="172"/>
+      <c r="AD27" s="176"/>
+      <c r="AE27" s="176"/>
+      <c r="AF27" s="176"/>
+      <c r="AG27" s="176"/>
+      <c r="AH27" s="176"/>
+      <c r="AI27" s="176"/>
+      <c r="AJ27" s="177"/>
     </row>
     <row r="28" spans="1:36" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="S28" s="153" t="s">
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="S28" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="154"/>
-      <c r="U28" s="144" t="s">
+      <c r="T28" s="159"/>
+      <c r="U28" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="146"/>
-      <c r="AC28" s="159" t="s">
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="151"/>
+      <c r="AC28" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="146"/>
+      <c r="AD28" s="150"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="150"/>
+      <c r="AG28" s="150"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="151"/>
     </row>
     <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="70"/>
       <c r="B29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="149"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="148"/>
-      <c r="AG29" s="148"/>
-      <c r="AH29" s="148"/>
-      <c r="AI29" s="148"/>
-      <c r="AJ29" s="149"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="S29" s="160"/>
+      <c r="T29" s="161"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="153"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="153"/>
+      <c r="Z29" s="153"/>
+      <c r="AA29" s="154"/>
+      <c r="AC29" s="165"/>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="153"/>
+      <c r="AF29" s="153"/>
+      <c r="AG29" s="153"/>
+      <c r="AH29" s="153"/>
+      <c r="AI29" s="153"/>
+      <c r="AJ29" s="154"/>
     </row>
     <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="71"/>
       <c r="B30" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="149"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="148"/>
-      <c r="AG30" s="148"/>
-      <c r="AH30" s="148"/>
-      <c r="AI30" s="148"/>
-      <c r="AJ30" s="149"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="S30" s="160"/>
+      <c r="T30" s="161"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="153"/>
+      <c r="Y30" s="153"/>
+      <c r="Z30" s="153"/>
+      <c r="AA30" s="154"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="153"/>
+      <c r="AE30" s="153"/>
+      <c r="AF30" s="153"/>
+      <c r="AG30" s="153"/>
+      <c r="AH30" s="153"/>
+      <c r="AI30" s="153"/>
+      <c r="AJ30" s="154"/>
     </row>
     <row r="31" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S31" s="155"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="149"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="148"/>
-      <c r="AG31" s="148"/>
-      <c r="AH31" s="148"/>
-      <c r="AI31" s="148"/>
-      <c r="AJ31" s="149"/>
+      <c r="S31" s="160"/>
+      <c r="T31" s="161"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="153"/>
+      <c r="Y31" s="153"/>
+      <c r="Z31" s="153"/>
+      <c r="AA31" s="154"/>
+      <c r="AC31" s="165"/>
+      <c r="AD31" s="153"/>
+      <c r="AE31" s="153"/>
+      <c r="AF31" s="153"/>
+      <c r="AG31" s="153"/>
+      <c r="AH31" s="153"/>
+      <c r="AI31" s="153"/>
+      <c r="AJ31" s="154"/>
     </row>
     <row r="32" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
@@ -4084,29 +4661,29 @@
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="167"/>
-      <c r="V32" s="168"/>
-      <c r="W32" s="168"/>
-      <c r="X32" s="168"/>
-      <c r="Y32" s="168"/>
-      <c r="Z32" s="168"/>
-      <c r="AA32" s="169"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="168"/>
-      <c r="AF32" s="168"/>
-      <c r="AG32" s="168"/>
-      <c r="AH32" s="168"/>
-      <c r="AI32" s="168"/>
-      <c r="AJ32" s="169"/>
+      <c r="S32" s="170"/>
+      <c r="T32" s="171"/>
+      <c r="U32" s="172"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="174"/>
+      <c r="AC32" s="178"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="173"/>
+      <c r="AJ32" s="174"/>
     </row>
     <row r="33" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="140"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="63">
         <f>COUNTIF(D24:AG24,"=8")</f>
         <v>1</v>
@@ -4116,29 +4693,29 @@
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="S33" s="153" t="s">
+      <c r="S33" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="T33" s="154"/>
-      <c r="U33" s="144" t="s">
+      <c r="T33" s="159"/>
+      <c r="U33" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="V33" s="145"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="146"/>
-      <c r="AC33" s="159" t="s">
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="150"/>
+      <c r="AA33" s="151"/>
+      <c r="AC33" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="AD33" s="145"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="146"/>
+      <c r="AD33" s="150"/>
+      <c r="AE33" s="150"/>
+      <c r="AF33" s="150"/>
+      <c r="AG33" s="150"/>
+      <c r="AH33" s="150"/>
+      <c r="AI33" s="150"/>
+      <c r="AJ33" s="151"/>
     </row>
     <row r="34" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="63" t="s">
@@ -4154,23 +4731,23 @@
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
-      <c r="S34" s="155"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="148"/>
-      <c r="Y34" s="148"/>
-      <c r="Z34" s="148"/>
-      <c r="AA34" s="149"/>
-      <c r="AC34" s="160"/>
-      <c r="AD34" s="148"/>
-      <c r="AE34" s="148"/>
-      <c r="AF34" s="148"/>
-      <c r="AG34" s="148"/>
-      <c r="AH34" s="148"/>
-      <c r="AI34" s="148"/>
-      <c r="AJ34" s="149"/>
+      <c r="S34" s="160"/>
+      <c r="T34" s="161"/>
+      <c r="U34" s="152"/>
+      <c r="V34" s="153"/>
+      <c r="W34" s="153"/>
+      <c r="X34" s="153"/>
+      <c r="Y34" s="153"/>
+      <c r="Z34" s="153"/>
+      <c r="AA34" s="154"/>
+      <c r="AC34" s="165"/>
+      <c r="AD34" s="153"/>
+      <c r="AE34" s="153"/>
+      <c r="AF34" s="153"/>
+      <c r="AG34" s="153"/>
+      <c r="AH34" s="153"/>
+      <c r="AI34" s="153"/>
+      <c r="AJ34" s="154"/>
     </row>
     <row r="35" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="63" t="s">
@@ -4186,23 +4763,23 @@
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="156"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="148"/>
-      <c r="W35" s="148"/>
-      <c r="X35" s="148"/>
-      <c r="Y35" s="148"/>
-      <c r="Z35" s="148"/>
-      <c r="AA35" s="149"/>
-      <c r="AC35" s="160"/>
-      <c r="AD35" s="148"/>
-      <c r="AE35" s="148"/>
-      <c r="AF35" s="148"/>
-      <c r="AG35" s="148"/>
-      <c r="AH35" s="148"/>
-      <c r="AI35" s="148"/>
-      <c r="AJ35" s="149"/>
+      <c r="S35" s="160"/>
+      <c r="T35" s="161"/>
+      <c r="U35" s="152"/>
+      <c r="V35" s="153"/>
+      <c r="W35" s="153"/>
+      <c r="X35" s="153"/>
+      <c r="Y35" s="153"/>
+      <c r="Z35" s="153"/>
+      <c r="AA35" s="154"/>
+      <c r="AC35" s="165"/>
+      <c r="AD35" s="153"/>
+      <c r="AE35" s="153"/>
+      <c r="AF35" s="153"/>
+      <c r="AG35" s="153"/>
+      <c r="AH35" s="153"/>
+      <c r="AI35" s="153"/>
+      <c r="AJ35" s="154"/>
     </row>
     <row r="36" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="63" t="s">
@@ -4218,29 +4795,29 @@
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="156"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="148"/>
-      <c r="W36" s="148"/>
-      <c r="X36" s="148"/>
-      <c r="Y36" s="148"/>
-      <c r="Z36" s="148"/>
-      <c r="AA36" s="149"/>
-      <c r="AC36" s="160"/>
-      <c r="AD36" s="148"/>
-      <c r="AE36" s="148"/>
-      <c r="AF36" s="148"/>
-      <c r="AG36" s="148"/>
-      <c r="AH36" s="148"/>
-      <c r="AI36" s="148"/>
-      <c r="AJ36" s="149"/>
+      <c r="S36" s="160"/>
+      <c r="T36" s="161"/>
+      <c r="U36" s="152"/>
+      <c r="V36" s="153"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="154"/>
+      <c r="AC36" s="165"/>
+      <c r="AD36" s="153"/>
+      <c r="AE36" s="153"/>
+      <c r="AF36" s="153"/>
+      <c r="AG36" s="153"/>
+      <c r="AH36" s="153"/>
+      <c r="AI36" s="153"/>
+      <c r="AJ36" s="154"/>
     </row>
     <row r="37" spans="1:36" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="174" t="s">
+      <c r="A37" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="174"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="63">
         <f>COUNTIF(D25:AG25,"&gt;0")</f>
         <v>20</v>
@@ -4250,23 +4827,23 @@
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
-      <c r="S37" s="157"/>
-      <c r="T37" s="158"/>
-      <c r="U37" s="150"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="152"/>
-      <c r="AC37" s="161"/>
-      <c r="AD37" s="151"/>
-      <c r="AE37" s="151"/>
-      <c r="AF37" s="151"/>
-      <c r="AG37" s="151"/>
-      <c r="AH37" s="151"/>
-      <c r="AI37" s="151"/>
-      <c r="AJ37" s="152"/>
+      <c r="S37" s="162"/>
+      <c r="T37" s="163"/>
+      <c r="U37" s="155"/>
+      <c r="V37" s="156"/>
+      <c r="W37" s="156"/>
+      <c r="X37" s="156"/>
+      <c r="Y37" s="156"/>
+      <c r="Z37" s="156"/>
+      <c r="AA37" s="157"/>
+      <c r="AC37" s="166"/>
+      <c r="AD37" s="156"/>
+      <c r="AE37" s="156"/>
+      <c r="AF37" s="156"/>
+      <c r="AG37" s="156"/>
+      <c r="AH37" s="156"/>
+      <c r="AI37" s="156"/>
+      <c r="AJ37" s="157"/>
     </row>
     <row r="38" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="63" t="s">
@@ -4306,10 +4883,10 @@
       <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:36" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="174" t="s">
+      <c r="A41" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="174"/>
+      <c r="B41" s="179"/>
       <c r="C41" s="63">
         <f>AH25</f>
         <v>160</v>
@@ -4321,10 +4898,10 @@
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:36" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="174"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="63">
         <v>45</v>
       </c>
@@ -4518,16 +5095,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA136F23-B726-450C-8838-7114D5303DC9}">
-  <dimension ref="A1:AG97"/>
+  <dimension ref="A1:AG81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="AE69" sqref="AE69"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.1796875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="36.90625" style="45" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" style="42" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.6328125" style="4" customWidth="1"/>
@@ -4661,12 +5238,12 @@
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="142" t="s">
+      <c r="N5" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
     </row>
     <row r="6" spans="1:33" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
@@ -4691,12 +5268,12 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="141" t="s">
+      <c r="N6" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="1:33" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -4719,13 +5296,13 @@
       <c r="Q7" s="76"/>
     </row>
     <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="180" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
@@ -4772,7 +5349,7 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="O9" s="50" t="str">
+      <c r="O9" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
@@ -4816,7 +5393,7 @@
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="Z9" s="50" t="str">
+      <c r="Z9" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
@@ -4828,7 +5405,7 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="AC9" s="50" t="str">
+      <c r="AC9" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
@@ -4840,7 +5417,7 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="AF9" s="139" t="s">
+      <c r="AF9" s="144" t="s">
         <v>23</v>
       </c>
       <c r="AG9" s="90" t="s">
@@ -4848,9 +5425,9 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="175"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="175"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="180"/>
       <c r="D10" s="51" cm="1">
         <f t="array" ref="D10:AE10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
         <v>45708</v>
@@ -4885,7 +5462,7 @@
       <c r="N10" s="52">
         <v>45718</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="51">
         <v>45719</v>
       </c>
       <c r="P10" s="52">
@@ -4918,7 +5495,7 @@
       <c r="Y10" s="52">
         <v>45729</v>
       </c>
-      <c r="Z10" s="52">
+      <c r="Z10" s="51">
         <v>45730</v>
       </c>
       <c r="AA10" s="52">
@@ -4927,7 +5504,7 @@
       <c r="AB10" s="52">
         <v>45732</v>
       </c>
-      <c r="AC10" s="52">
+      <c r="AC10" s="51">
         <v>45733</v>
       </c>
       <c r="AD10" s="52">
@@ -4936,7 +5513,7 @@
       <c r="AE10" s="52">
         <v>45735</v>
       </c>
-      <c r="AF10" s="139"/>
+      <c r="AF10" s="144"/>
       <c r="AG10" s="90"/>
     </row>
     <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.4">
@@ -4967,7 +5544,7 @@
       <c r="W11" s="54"/>
       <c r="X11" s="54"/>
       <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
+      <c r="Z11" s="205"/>
       <c r="AA11" s="54"/>
       <c r="AB11" s="54"/>
       <c r="AC11" s="54"/>
@@ -4976,13 +5553,17 @@
       <c r="AF11" s="55"/>
       <c r="AG11" s="73"/>
     </row>
-    <row r="12" spans="1:33" ht="153" x14ac:dyDescent="0.4">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89" t="s">
+    <row r="12" spans="1:33" ht="85" x14ac:dyDescent="0.4">
+      <c r="A12" s="206" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="139" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="D12" s="57">
+        <v>1</v>
+      </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
       <c r="G12" s="50"/>
@@ -4993,7 +5574,7 @@
       <c r="L12" s="50"/>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
+      <c r="O12" s="57"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
@@ -5004,34 +5585,42 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
+      <c r="Z12" s="57"/>
       <c r="AA12" s="50"/>
       <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
+      <c r="AC12" s="57"/>
       <c r="AD12" s="50"/>
       <c r="AE12" s="50"/>
       <c r="AF12" s="58">
         <f>SUM(D12:AE12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="73"/>
     </row>
-    <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
+    <row r="13" spans="1:33" ht="68" x14ac:dyDescent="0.4">
+      <c r="A13" s="207"/>
+      <c r="B13" s="89" t="s">
+        <v>175</v>
+      </c>
       <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="57">
+        <v>1</v>
+      </c>
+      <c r="E13" s="57">
+        <v>0.5</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="57"/>
+      <c r="H13" s="57">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
       <c r="M13" s="50"/>
       <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
@@ -5042,34 +5631,42 @@
       <c r="W13" s="50"/>
       <c r="X13" s="50"/>
       <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
+      <c r="Z13" s="57"/>
       <c r="AA13" s="50"/>
       <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
+      <c r="AC13" s="57"/>
       <c r="AD13" s="50"/>
       <c r="AE13" s="50"/>
       <c r="AF13" s="58">
-        <f t="shared" ref="AF13:AF60" si="1">SUM(D13:AE13)</f>
-        <v>0</v>
+        <f t="shared" ref="AF13:AF44" si="1">SUM(D13:AE13)</f>
+        <v>2</v>
       </c>
       <c r="AG13" s="73"/>
     </row>
-    <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
+    <row r="14" spans="1:33" ht="68" x14ac:dyDescent="0.4">
+      <c r="A14" s="207"/>
+      <c r="B14" s="89" t="s">
+        <v>176</v>
+      </c>
       <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="57">
+        <v>1</v>
+      </c>
+      <c r="E14" s="57">
+        <v>0.5</v>
+      </c>
       <c r="F14" s="57"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="57">
+        <v>0.5</v>
+      </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
       <c r="L14" s="50"/>
       <c r="M14" s="50"/>
       <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
@@ -5080,34 +5677,42 @@
       <c r="W14" s="50"/>
       <c r="X14" s="50"/>
       <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
+      <c r="Z14" s="57"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
+      <c r="AC14" s="57"/>
       <c r="AD14" s="50"/>
       <c r="AE14" s="50"/>
       <c r="AF14" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG14" s="73"/>
     </row>
-    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
+    <row r="15" spans="1:33" ht="153" x14ac:dyDescent="0.4">
+      <c r="A15" s="207"/>
+      <c r="B15" s="89" t="s">
+        <v>177</v>
+      </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="D15" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="57">
+        <v>1.5</v>
+      </c>
       <c r="F15" s="57"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="57"/>
+      <c r="H15" s="57">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="50"/>
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
@@ -5118,35 +5723,53 @@
       <c r="W15" s="50"/>
       <c r="X15" s="50"/>
       <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
+      <c r="Z15" s="57"/>
       <c r="AA15" s="50"/>
       <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
+      <c r="AC15" s="57"/>
       <c r="AD15" s="50"/>
       <c r="AE15" s="50"/>
       <c r="AF15" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG15" s="73"/>
     </row>
-    <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
+    <row r="16" spans="1:33" ht="187" x14ac:dyDescent="0.4">
+      <c r="A16" s="207"/>
+      <c r="B16" s="89" t="s">
+        <v>187</v>
+      </c>
       <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="D16" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="57">
+        <v>1.5</v>
+      </c>
       <c r="F16" s="57"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
+      <c r="H16" s="57">
+        <v>2</v>
+      </c>
+      <c r="I16" s="50">
+        <v>2</v>
+      </c>
+      <c r="J16" s="50">
+        <v>2</v>
+      </c>
+      <c r="K16" s="50">
+        <v>2</v>
+      </c>
       <c r="L16" s="50"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="P16" s="50">
+        <v>1.5</v>
+      </c>
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
       <c r="S16" s="50"/>
@@ -5156,24 +5779,32 @@
       <c r="W16" s="50"/>
       <c r="X16" s="50"/>
       <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
+      <c r="Z16" s="57"/>
       <c r="AA16" s="50"/>
       <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
+      <c r="AC16" s="57"/>
       <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
+      <c r="AE16" s="50">
+        <v>0.5</v>
+      </c>
       <c r="AF16" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" s="73"/>
     </row>
-    <row r="17" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89"/>
+    <row r="17" spans="1:33" ht="85" x14ac:dyDescent="0.4">
+      <c r="A17" s="207"/>
+      <c r="B17" s="89" t="s">
+        <v>178</v>
+      </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0.5</v>
+      </c>
       <c r="F17" s="57"/>
       <c r="G17" s="50"/>
       <c r="H17" s="57"/>
@@ -5183,7 +5814,7 @@
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
       <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="O17" s="57"/>
       <c r="P17" s="50"/>
       <c r="Q17" s="50"/>
       <c r="R17" s="50"/>
@@ -5194,34 +5825,42 @@
       <c r="W17" s="50"/>
       <c r="X17" s="50"/>
       <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
+      <c r="Z17" s="57"/>
       <c r="AA17" s="50"/>
       <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
+      <c r="AC17" s="57"/>
       <c r="AD17" s="50"/>
       <c r="AE17" s="50"/>
       <c r="AF17" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="73"/>
     </row>
-    <row r="18" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
+    <row r="18" spans="1:33" ht="51" x14ac:dyDescent="0.4">
+      <c r="A18" s="207"/>
+      <c r="B18" s="89" t="s">
+        <v>179</v>
+      </c>
       <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="57">
+        <v>0.5</v>
+      </c>
       <c r="F18" s="57"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="57"/>
+      <c r="H18" s="57">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
       <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="50"/>
       <c r="R18" s="50"/>
@@ -5232,34 +5871,42 @@
       <c r="W18" s="50"/>
       <c r="X18" s="50"/>
       <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
+      <c r="Z18" s="57"/>
       <c r="AA18" s="50"/>
       <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
+      <c r="AC18" s="57"/>
       <c r="AD18" s="50"/>
       <c r="AE18" s="50"/>
       <c r="AF18" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG18" s="73"/>
     </row>
-    <row r="19" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A19" s="88"/>
-      <c r="B19" s="89"/>
+    <row r="19" spans="1:33" ht="68" x14ac:dyDescent="0.4">
+      <c r="A19" s="207"/>
+      <c r="B19" s="89" t="s">
+        <v>180</v>
+      </c>
       <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="57">
+        <v>0.5</v>
+      </c>
       <c r="F19" s="57"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="57"/>
+      <c r="H19" s="57">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
@@ -5270,34 +5917,42 @@
       <c r="W19" s="50"/>
       <c r="X19" s="50"/>
       <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
+      <c r="Z19" s="57"/>
       <c r="AA19" s="50"/>
       <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
+      <c r="AC19" s="57"/>
       <c r="AD19" s="50"/>
       <c r="AE19" s="50"/>
       <c r="AF19" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG19" s="73"/>
     </row>
-    <row r="20" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A20" s="88"/>
-      <c r="B20" s="89"/>
+    <row r="20" spans="1:33" ht="68" x14ac:dyDescent="0.4">
+      <c r="A20" s="207"/>
+      <c r="B20" s="89" t="s">
+        <v>181</v>
+      </c>
       <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="D20" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="57">
+        <v>0.5</v>
+      </c>
       <c r="F20" s="57"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="57">
+        <v>0.5</v>
+      </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
@@ -5308,34 +5963,46 @@
       <c r="W20" s="50"/>
       <c r="X20" s="50"/>
       <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
+      <c r="Z20" s="57"/>
       <c r="AA20" s="50"/>
       <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
+      <c r="AC20" s="57"/>
       <c r="AD20" s="50"/>
       <c r="AE20" s="50"/>
       <c r="AF20" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG20" s="73"/>
     </row>
-    <row r="21" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A21" s="88"/>
-      <c r="B21" s="89"/>
+    <row r="21" spans="1:33" ht="92.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="207"/>
+      <c r="B21" s="140" t="s">
+        <v>188</v>
+      </c>
       <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="57">
+        <v>0.5</v>
+      </c>
       <c r="F21" s="57"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="50"/>
+      <c r="H21" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="50">
+        <v>0.5</v>
+      </c>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="O21" s="57">
+        <v>0.5</v>
+      </c>
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
       <c r="R21" s="50"/>
@@ -5346,34 +6013,48 @@
       <c r="W21" s="50"/>
       <c r="X21" s="50"/>
       <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
+      <c r="Z21" s="57"/>
       <c r="AA21" s="50"/>
       <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
+      <c r="AC21" s="57"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG21" s="73"/>
     </row>
-    <row r="22" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
+    <row r="22" spans="1:33" ht="111" x14ac:dyDescent="0.45">
+      <c r="A22" s="207"/>
+      <c r="B22" s="140" t="s">
+        <v>189</v>
+      </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="57">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="57"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="H22" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
       <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="O22" s="57"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
@@ -5384,34 +6065,46 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
+      <c r="Z22" s="57"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
+      <c r="AC22" s="57"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG22" s="73"/>
     </row>
-    <row r="23" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="88"/>
-      <c r="B23" s="89"/>
+    <row r="23" spans="1:33" ht="111" x14ac:dyDescent="0.45">
+      <c r="A23" s="207"/>
+      <c r="B23" s="140" t="s">
+        <v>189</v>
+      </c>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
+      <c r="H23" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L23" s="50"/>
       <c r="M23" s="50"/>
       <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="O23" s="57">
+        <v>0.5</v>
+      </c>
       <c r="P23" s="50"/>
       <c r="Q23" s="50"/>
       <c r="R23" s="50"/>
@@ -5422,34 +6115,46 @@
       <c r="W23" s="50"/>
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
+      <c r="Z23" s="57"/>
       <c r="AA23" s="50"/>
       <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
+      <c r="AC23" s="57"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG23" s="73"/>
     </row>
-    <row r="24" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="88"/>
-      <c r="B24" s="89"/>
+    <row r="24" spans="1:33" ht="111" x14ac:dyDescent="0.45">
+      <c r="A24" s="207"/>
+      <c r="B24" s="140" t="s">
+        <v>190</v>
+      </c>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
       <c r="G24" s="50"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="H24" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L24" s="50"/>
       <c r="M24" s="50"/>
       <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="O24" s="57">
+        <v>0.5</v>
+      </c>
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
@@ -5460,34 +6165,44 @@
       <c r="W24" s="50"/>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
+      <c r="Z24" s="57"/>
       <c r="AA24" s="50"/>
       <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
+      <c r="AC24" s="57"/>
       <c r="AD24" s="50"/>
       <c r="AE24" s="50"/>
       <c r="AF24" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG24" s="73"/>
     </row>
-    <row r="25" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="88"/>
-      <c r="B25" s="89"/>
+    <row r="25" spans="1:33" ht="148" x14ac:dyDescent="0.45">
+      <c r="A25" s="207"/>
+      <c r="B25" s="140" t="s">
+        <v>191</v>
+      </c>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
       <c r="F25" s="57"/>
       <c r="G25" s="50"/>
       <c r="H25" s="57"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
+      <c r="I25" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L25" s="50"/>
       <c r="M25" s="50"/>
       <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
+      <c r="O25" s="57">
+        <v>0.5</v>
+      </c>
       <c r="P25" s="50"/>
       <c r="Q25" s="50"/>
       <c r="R25" s="50"/>
@@ -5498,97 +6213,143 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
+      <c r="Z25" s="57"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
+      <c r="AC25" s="57"/>
       <c r="AD25" s="50"/>
       <c r="AE25" s="50"/>
       <c r="AF25" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG25" s="73"/>
     </row>
-    <row r="26" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A26" s="88"/>
-      <c r="B26" s="89"/>
+    <row r="26" spans="1:33" ht="153" x14ac:dyDescent="0.4">
+      <c r="A26" s="207"/>
+      <c r="B26" s="89" t="s">
+        <v>182</v>
+      </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="57"/>
       <c r="G26" s="50"/>
       <c r="H26" s="57"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
+      <c r="I26" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="K26" s="50">
+        <v>0.5</v>
+      </c>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
       <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
+      <c r="O26" s="57">
+        <v>0.5</v>
+      </c>
       <c r="P26" s="50"/>
       <c r="Q26" s="50"/>
       <c r="R26" s="50"/>
       <c r="S26" s="50"/>
       <c r="T26" s="50"/>
       <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
+      <c r="V26" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W26" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X26" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Y26" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Z26" s="57"/>
       <c r="AA26" s="50"/>
       <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AE26" s="50">
+        <v>0.5</v>
+      </c>
       <c r="AF26" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG26" s="73"/>
     </row>
-    <row r="27" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A27" s="88"/>
-      <c r="B27" s="89"/>
+    <row r="27" spans="1:33" ht="153" x14ac:dyDescent="0.4">
+      <c r="A27" s="207"/>
+      <c r="B27" s="89" t="s">
+        <v>183</v>
+      </c>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
       <c r="E27" s="57"/>
       <c r="F27" s="57"/>
       <c r="G27" s="50"/>
       <c r="H27" s="57"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="I27" s="50">
+        <v>1</v>
+      </c>
+      <c r="J27" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="K27" s="50">
+        <v>1.5</v>
+      </c>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
       <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
+      <c r="O27" s="57">
+        <v>1.5</v>
+      </c>
       <c r="P27" s="50"/>
       <c r="Q27" s="50"/>
       <c r="R27" s="50"/>
       <c r="S27" s="50"/>
       <c r="T27" s="50"/>
       <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
+      <c r="V27" s="50">
+        <v>2</v>
+      </c>
+      <c r="W27" s="50">
+        <v>2</v>
+      </c>
+      <c r="X27" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="50">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="57"/>
       <c r="AA27" s="50"/>
       <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="50">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="50">
+        <v>2</v>
+      </c>
       <c r="AF27" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG27" s="73"/>
     </row>
-    <row r="28" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A28" s="88"/>
-      <c r="B28" s="89"/>
+    <row r="28" spans="1:33" ht="68" x14ac:dyDescent="0.4">
+      <c r="A28" s="207"/>
+      <c r="B28" s="89" t="s">
+        <v>184</v>
+      </c>
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
@@ -5597,36 +6358,50 @@
       <c r="H28" s="57"/>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="K28" s="50">
+        <v>1</v>
+      </c>
       <c r="L28" s="50"/>
       <c r="M28" s="50"/>
       <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
+      <c r="O28" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="P28" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="Q28" s="50">
+        <v>1.5</v>
+      </c>
       <c r="R28" s="50"/>
       <c r="S28" s="50"/>
       <c r="T28" s="50"/>
       <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
+      <c r="V28" s="50">
+        <v>0.5</v>
+      </c>
       <c r="W28" s="50"/>
       <c r="X28" s="50"/>
       <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
+      <c r="Z28" s="57"/>
       <c r="AA28" s="50"/>
       <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
+      <c r="AC28" s="57"/>
       <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
+      <c r="AE28" s="50">
+        <v>0.5</v>
+      </c>
       <c r="AF28" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AG28" s="73"/>
     </row>
-    <row r="29" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A29" s="88"/>
-      <c r="B29" s="89"/>
+    <row r="29" spans="1:33" ht="102" x14ac:dyDescent="0.4">
+      <c r="A29" s="207"/>
+      <c r="B29" s="89" t="s">
+        <v>185</v>
+      </c>
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
@@ -5639,32 +6414,50 @@
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
       <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
+      <c r="O29" s="57"/>
       <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
+      <c r="Q29" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="S29" s="50">
+        <v>1.5</v>
+      </c>
       <c r="T29" s="50"/>
       <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
+      <c r="V29" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W29" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X29" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Y29" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Z29" s="57"/>
       <c r="AA29" s="50"/>
       <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
+      <c r="AC29" s="57"/>
       <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
+      <c r="AE29" s="50">
+        <v>0.5</v>
+      </c>
       <c r="AF29" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG29" s="73"/>
     </row>
-    <row r="30" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
+    <row r="30" spans="1:33" ht="68" x14ac:dyDescent="0.4">
+      <c r="A30" s="207"/>
+      <c r="B30" s="89" t="s">
+        <v>186</v>
+      </c>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -5677,32 +6470,44 @@
       <c r="L30" s="50"/>
       <c r="M30" s="50"/>
       <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
+      <c r="O30" s="57"/>
       <c r="P30" s="50"/>
       <c r="Q30" s="50"/>
       <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
+      <c r="S30" s="50">
+        <v>0.5</v>
+      </c>
       <c r="T30" s="50"/>
       <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
+      <c r="V30" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W30" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X30" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Y30" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Z30" s="57"/>
       <c r="AA30" s="50"/>
       <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
+      <c r="AC30" s="57"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG30" s="73"/>
     </row>
-    <row r="31" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A31" s="88"/>
-      <c r="B31" s="89"/>
+    <row r="31" spans="1:33" ht="85" x14ac:dyDescent="0.4">
+      <c r="A31" s="207"/>
+      <c r="B31" s="89" t="s">
+        <v>192</v>
+      </c>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
@@ -5715,9 +6520,13 @@
       <c r="L31" s="50"/>
       <c r="M31" s="50"/>
       <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Q31" s="50">
+        <v>0.5</v>
+      </c>
       <c r="R31" s="50"/>
       <c r="S31" s="50"/>
       <c r="T31" s="50"/>
@@ -5726,21 +6535,23 @@
       <c r="W31" s="50"/>
       <c r="X31" s="50"/>
       <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
+      <c r="Z31" s="57"/>
       <c r="AA31" s="50"/>
       <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
+      <c r="AC31" s="57"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="73"/>
     </row>
-    <row r="32" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A32" s="88"/>
-      <c r="B32" s="89"/>
+    <row r="32" spans="1:33" ht="111" x14ac:dyDescent="0.4">
+      <c r="A32" s="207"/>
+      <c r="B32" s="141" t="s">
+        <v>193</v>
+      </c>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
@@ -5753,32 +6564,42 @@
       <c r="L32" s="50"/>
       <c r="M32" s="50"/>
       <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
+      <c r="O32" s="57"/>
       <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
+      <c r="Q32" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="50">
+        <v>0.5</v>
+      </c>
       <c r="S32" s="50"/>
       <c r="T32" s="50"/>
       <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
+      <c r="V32" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W32" s="50">
+        <v>0.5</v>
+      </c>
       <c r="X32" s="50"/>
       <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
+      <c r="Z32" s="57"/>
       <c r="AA32" s="50"/>
       <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
+      <c r="AC32" s="57"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG32" s="73"/>
     </row>
-    <row r="33" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
+    <row r="33" spans="1:33" ht="111" x14ac:dyDescent="0.4">
+      <c r="A33" s="207"/>
+      <c r="B33" s="141" t="s">
+        <v>194</v>
+      </c>
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
@@ -5791,32 +6612,44 @@
       <c r="L33" s="50"/>
       <c r="M33" s="50"/>
       <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
+      <c r="O33" s="57"/>
       <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
+      <c r="Q33" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R33" s="50">
+        <v>0.5</v>
+      </c>
       <c r="S33" s="50"/>
       <c r="T33" s="50"/>
       <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
+      <c r="V33" s="50">
+        <v>0.5</v>
+      </c>
       <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
+      <c r="X33" s="50">
+        <v>0.5</v>
+      </c>
       <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
+      <c r="Z33" s="57"/>
       <c r="AA33" s="50"/>
       <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="50">
+        <v>0.5</v>
+      </c>
       <c r="AE33" s="50"/>
       <c r="AF33" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG33" s="73"/>
     </row>
-    <row r="34" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A34" s="88"/>
-      <c r="B34" s="89"/>
+    <row r="34" spans="1:33" ht="170" x14ac:dyDescent="0.4">
+      <c r="A34" s="207"/>
+      <c r="B34" s="143" t="s">
+        <v>195</v>
+      </c>
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
@@ -5829,32 +6662,52 @@
       <c r="L34" s="50"/>
       <c r="M34" s="50"/>
       <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="Q34" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="R34" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="S34" s="50">
+        <v>1.5</v>
+      </c>
       <c r="T34" s="50"/>
       <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
+      <c r="V34" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W34" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X34" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Y34" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Z34" s="57"/>
       <c r="AA34" s="50"/>
       <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="50">
+        <v>0.5</v>
+      </c>
       <c r="AE34" s="50"/>
       <c r="AF34" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG34" s="73"/>
     </row>
-    <row r="35" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A35" s="88"/>
-      <c r="B35" s="89"/>
+    <row r="35" spans="1:33" ht="85" x14ac:dyDescent="0.4">
+      <c r="A35" s="207"/>
+      <c r="B35" s="142" t="s">
+        <v>196</v>
+      </c>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
@@ -5867,32 +6720,40 @@
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
       <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="50">
+        <v>1</v>
+      </c>
       <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
+      <c r="S35" s="50">
+        <v>0.5</v>
+      </c>
       <c r="T35" s="50"/>
       <c r="U35" s="50"/>
       <c r="V35" s="50"/>
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
+      <c r="Z35" s="57"/>
       <c r="AA35" s="50"/>
       <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
+      <c r="AC35" s="57"/>
       <c r="AD35" s="50"/>
       <c r="AE35" s="50"/>
       <c r="AF35" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG35" s="73"/>
     </row>
-    <row r="36" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A36" s="88"/>
-      <c r="B36" s="89"/>
+    <row r="36" spans="1:33" ht="51" x14ac:dyDescent="0.4">
+      <c r="A36" s="207"/>
+      <c r="B36" s="143" t="s">
+        <v>197</v>
+      </c>
       <c r="C36" s="57"/>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
@@ -5905,32 +6766,42 @@
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
       <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R36" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="S36" s="50">
+        <v>0.5</v>
+      </c>
       <c r="T36" s="50"/>
       <c r="U36" s="50"/>
       <c r="V36" s="50"/>
       <c r="W36" s="50"/>
       <c r="X36" s="50"/>
       <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
+      <c r="Z36" s="57"/>
       <c r="AA36" s="50"/>
       <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
+      <c r="AC36" s="57"/>
       <c r="AD36" s="50"/>
       <c r="AE36" s="50"/>
       <c r="AF36" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG36" s="73"/>
     </row>
-    <row r="37" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A37" s="88"/>
-      <c r="B37" s="89"/>
+    <row r="37" spans="1:33" ht="102" x14ac:dyDescent="0.4">
+      <c r="A37" s="207"/>
+      <c r="B37" s="143" t="s">
+        <v>198</v>
+      </c>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
@@ -5943,32 +6814,42 @@
       <c r="L37" s="50"/>
       <c r="M37" s="50"/>
       <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="S37" s="50">
+        <v>1.5</v>
+      </c>
       <c r="T37" s="50"/>
       <c r="U37" s="50"/>
       <c r="V37" s="50"/>
       <c r="W37" s="50"/>
       <c r="X37" s="50"/>
       <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
+      <c r="Z37" s="57"/>
       <c r="AA37" s="50"/>
       <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
+      <c r="AC37" s="57"/>
       <c r="AD37" s="50"/>
       <c r="AE37" s="50"/>
       <c r="AF37" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG37" s="73"/>
     </row>
-    <row r="38" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A38" s="88"/>
-      <c r="B38" s="89"/>
+    <row r="38" spans="1:33" ht="51" x14ac:dyDescent="0.4">
+      <c r="A38" s="207"/>
+      <c r="B38" s="143" t="s">
+        <v>199</v>
+      </c>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5981,32 +6862,38 @@
       <c r="L38" s="50"/>
       <c r="M38" s="50"/>
       <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="50">
+        <v>0.5</v>
+      </c>
       <c r="Q38" s="50"/>
       <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
+      <c r="S38" s="50">
+        <v>1</v>
+      </c>
       <c r="T38" s="50"/>
       <c r="U38" s="50"/>
       <c r="V38" s="50"/>
       <c r="W38" s="50"/>
       <c r="X38" s="50"/>
       <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
+      <c r="Z38" s="57"/>
       <c r="AA38" s="50"/>
       <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
+      <c r="AC38" s="57"/>
       <c r="AD38" s="50"/>
       <c r="AE38" s="50"/>
       <c r="AF38" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG38" s="73"/>
     </row>
-    <row r="39" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A39" s="88"/>
-      <c r="B39" s="89"/>
+    <row r="39" spans="1:33" ht="119" x14ac:dyDescent="0.4">
+      <c r="A39" s="207"/>
+      <c r="B39" s="143" t="s">
+        <v>200</v>
+      </c>
       <c r="C39" s="57"/>
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
@@ -6019,32 +6906,46 @@
       <c r="L39" s="50"/>
       <c r="M39" s="50"/>
       <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
+      <c r="O39" s="57"/>
       <c r="P39" s="50"/>
       <c r="Q39" s="50"/>
       <c r="R39" s="50"/>
       <c r="S39" s="50"/>
       <c r="T39" s="50"/>
       <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
+      <c r="V39" s="50">
+        <v>1</v>
+      </c>
+      <c r="W39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Z39" s="57"/>
       <c r="AA39" s="50"/>
       <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="50">
+        <v>1</v>
+      </c>
       <c r="AF39" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AG39" s="73"/>
     </row>
-    <row r="40" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A40" s="88"/>
-      <c r="B40" s="89"/>
+    <row r="40" spans="1:33" ht="187" x14ac:dyDescent="0.4">
+      <c r="A40" s="207"/>
+      <c r="B40" s="143" t="s">
+        <v>201</v>
+      </c>
       <c r="C40" s="57"/>
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
@@ -6057,32 +6958,46 @@
       <c r="L40" s="50"/>
       <c r="M40" s="50"/>
       <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
+      <c r="O40" s="57"/>
       <c r="P40" s="50"/>
       <c r="Q40" s="50"/>
       <c r="R40" s="50"/>
       <c r="S40" s="50"/>
       <c r="T40" s="50"/>
       <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
+      <c r="V40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W40" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="X40" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="Y40" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="Z40" s="57"/>
       <c r="AA40" s="50"/>
       <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="50">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="50">
+        <v>2</v>
+      </c>
       <c r="AF40" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG40" s="73"/>
     </row>
-    <row r="41" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A41" s="88"/>
-      <c r="B41" s="89"/>
+    <row r="41" spans="1:33" ht="51" x14ac:dyDescent="0.4">
+      <c r="A41" s="208"/>
+      <c r="B41" s="143" t="s">
+        <v>202</v>
+      </c>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
@@ -6095,7 +7010,7 @@
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
       <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
+      <c r="O41" s="57"/>
       <c r="P41" s="50"/>
       <c r="Q41" s="50"/>
       <c r="R41" s="50"/>
@@ -6103,62 +7018,78 @@
       <c r="T41" s="50"/>
       <c r="U41" s="50"/>
       <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
+      <c r="W41" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X41" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="Y41" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="57"/>
       <c r="AA41" s="50"/>
       <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="50">
+        <v>0.5</v>
+      </c>
       <c r="AE41" s="50"/>
       <c r="AF41" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG41" s="73"/>
     </row>
-    <row r="42" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A42" s="88"/>
-      <c r="B42" s="89"/>
+    <row r="42" spans="1:33" ht="34" x14ac:dyDescent="0.4">
+      <c r="A42" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>205</v>
+      </c>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
       <c r="E42" s="57"/>
       <c r="F42" s="57"/>
-      <c r="G42" s="50"/>
+      <c r="G42" s="57"/>
       <c r="H42" s="57"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
       <c r="AF42" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG42" s="73"/>
     </row>
-    <row r="43" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A43" s="88"/>
-      <c r="B43" s="89"/>
+    <row r="43" spans="1:33" ht="68" x14ac:dyDescent="0.4">
+      <c r="A43" s="210"/>
+      <c r="B43" s="89" t="s">
+        <v>206</v>
+      </c>
       <c r="C43" s="57"/>
       <c r="D43" s="57"/>
       <c r="E43" s="57"/>
@@ -6171,7 +7102,7 @@
       <c r="L43" s="50"/>
       <c r="M43" s="50"/>
       <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
+      <c r="O43" s="57"/>
       <c r="P43" s="50"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
@@ -6182,15 +7113,17 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
+      <c r="Z43" s="57"/>
       <c r="AA43" s="50"/>
       <c r="AB43" s="50"/>
-      <c r="AC43" s="50"/>
+      <c r="AC43" s="57">
+        <v>7</v>
+      </c>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG43" s="73"/>
     </row>
@@ -6209,7 +7142,7 @@
       <c r="L44" s="50"/>
       <c r="M44" s="50"/>
       <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
+      <c r="O44" s="57"/>
       <c r="P44" s="50"/>
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
@@ -6220,10 +7153,10 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
+      <c r="Z44" s="57"/>
       <c r="AA44" s="50"/>
       <c r="AB44" s="50"/>
-      <c r="AC44" s="50"/>
+      <c r="AC44" s="57"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="58">
@@ -6233,85 +7166,128 @@
       <c r="AG44" s="73"/>
     </row>
     <row r="45" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A45" s="88"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
-      <c r="W45" s="50"/>
-      <c r="X45" s="50"/>
-      <c r="Y45" s="50"/>
-      <c r="Z45" s="50"/>
-      <c r="AA45" s="50"/>
-      <c r="AB45" s="50"/>
-      <c r="AC45" s="50"/>
-      <c r="AD45" s="50"/>
-      <c r="AE45" s="50"/>
-      <c r="AF45" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A45" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="59"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="55"/>
       <c r="AG45" s="73"/>
     </row>
     <row r="46" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A46" s="88"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="57">
+        <v>1</v>
+      </c>
+      <c r="E46" s="57">
+        <v>1</v>
+      </c>
       <c r="F46" s="57"/>
       <c r="G46" s="50"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
+      <c r="H46" s="57">
+        <v>1</v>
+      </c>
+      <c r="I46" s="50">
+        <v>1</v>
+      </c>
+      <c r="J46" s="50">
+        <v>1</v>
+      </c>
+      <c r="K46" s="50">
+        <v>1</v>
+      </c>
       <c r="L46" s="50"/>
       <c r="M46" s="50"/>
       <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
+      <c r="O46" s="57">
+        <v>1</v>
+      </c>
+      <c r="P46" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="50">
+        <v>1</v>
+      </c>
+      <c r="R46" s="50">
+        <v>1</v>
+      </c>
+      <c r="S46" s="50">
+        <v>1</v>
+      </c>
       <c r="T46" s="50"/>
       <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
+      <c r="V46" s="50">
+        <v>1</v>
+      </c>
+      <c r="W46" s="50">
+        <v>1</v>
+      </c>
+      <c r="X46" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="57">
+        <v>1</v>
+      </c>
       <c r="AA46" s="50"/>
       <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="50"/>
+      <c r="AC46" s="57">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="50">
+        <v>1</v>
+      </c>
       <c r="AF46" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D46:AE46)</f>
+        <v>19</v>
       </c>
       <c r="AG46" s="73"/>
     </row>
     <row r="47" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A47" s="88"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="57"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57" t="s">
+        <v>36</v>
+      </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
       <c r="F47" s="57"/>
@@ -6323,7 +7299,7 @@
       <c r="L47" s="50"/>
       <c r="M47" s="50"/>
       <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
+      <c r="O47" s="57"/>
       <c r="P47" s="50"/>
       <c r="Q47" s="50"/>
       <c r="R47" s="50"/>
@@ -6334,22 +7310,24 @@
       <c r="W47" s="50"/>
       <c r="X47" s="50"/>
       <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
+      <c r="Z47" s="57"/>
       <c r="AA47" s="50"/>
       <c r="AB47" s="50"/>
-      <c r="AC47" s="50"/>
+      <c r="AC47" s="57"/>
       <c r="AD47" s="50"/>
       <c r="AE47" s="50"/>
       <c r="AF47" s="58">
-        <f t="shared" si="1"/>
+        <f>SUM(D47:AE47)</f>
         <v>0</v>
       </c>
       <c r="AG47" s="73"/>
     </row>
     <row r="48" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A48" s="88"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="57"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57" t="s">
+        <v>37</v>
+      </c>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
@@ -6361,7 +7339,7 @@
       <c r="L48" s="50"/>
       <c r="M48" s="50"/>
       <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
+      <c r="O48" s="57"/>
       <c r="P48" s="50"/>
       <c r="Q48" s="50"/>
       <c r="R48" s="50"/>
@@ -6372,60 +7350,59 @@
       <c r="W48" s="50"/>
       <c r="X48" s="50"/>
       <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
+      <c r="Z48" s="57"/>
       <c r="AA48" s="50"/>
       <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
+      <c r="AC48" s="57"/>
       <c r="AD48" s="50"/>
       <c r="AE48" s="50"/>
       <c r="AF48" s="58">
-        <f t="shared" si="1"/>
+        <f>SUM(D48:AE48)</f>
         <v>0</v>
       </c>
       <c r="AG48" s="73"/>
     </row>
-    <row r="49" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A49" s="88"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50"/>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="49" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="68"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="62"/>
       <c r="AG49" s="73"/>
     </row>
     <row r="50" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A50" s="88"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="57"/>
+      <c r="A50" s="181" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="182"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
@@ -6437,7 +7414,7 @@
       <c r="L50" s="50"/>
       <c r="M50" s="50"/>
       <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
+      <c r="O50" s="57"/>
       <c r="P50" s="50"/>
       <c r="Q50" s="50"/>
       <c r="R50" s="50"/>
@@ -6448,22 +7425,24 @@
       <c r="W50" s="50"/>
       <c r="X50" s="50"/>
       <c r="Y50" s="50"/>
-      <c r="Z50" s="50"/>
+      <c r="Z50" s="57"/>
       <c r="AA50" s="50"/>
       <c r="AB50" s="50"/>
-      <c r="AC50" s="50"/>
+      <c r="AC50" s="57"/>
       <c r="AD50" s="50"/>
       <c r="AE50" s="50"/>
       <c r="AF50" s="58">
-        <f t="shared" si="1"/>
+        <f>SUM(D50:AE50)</f>
         <v>0</v>
       </c>
       <c r="AG50" s="73"/>
     </row>
     <row r="51" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A51" s="88"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="57"/>
+      <c r="A51" s="181" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="182"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
       <c r="F51" s="57"/>
@@ -6472,10 +7451,12 @@
       <c r="I51" s="50"/>
       <c r="J51" s="50"/>
       <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
+      <c r="L51" s="50">
+        <v>8</v>
+      </c>
       <c r="M51" s="50"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
+      <c r="O51" s="57"/>
       <c r="P51" s="50"/>
       <c r="Q51" s="50"/>
       <c r="R51" s="50"/>
@@ -6486,22 +7467,24 @@
       <c r="W51" s="50"/>
       <c r="X51" s="50"/>
       <c r="Y51" s="50"/>
-      <c r="Z51" s="50"/>
+      <c r="Z51" s="57"/>
       <c r="AA51" s="50"/>
       <c r="AB51" s="50"/>
-      <c r="AC51" s="50"/>
+      <c r="AC51" s="57"/>
       <c r="AD51" s="50"/>
       <c r="AE51" s="50"/>
       <c r="AF51" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D51:AE51)</f>
+        <v>8</v>
       </c>
       <c r="AG51" s="73"/>
     </row>
     <row r="52" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A52" s="88"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="57"/>
+      <c r="A52" s="184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="185"/>
+      <c r="C52" s="186"/>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
@@ -6513,7 +7496,7 @@
       <c r="L52" s="50"/>
       <c r="M52" s="50"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
+      <c r="O52" s="57"/>
       <c r="P52" s="50"/>
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
@@ -6524,1316 +7507,661 @@
       <c r="W52" s="50"/>
       <c r="X52" s="50"/>
       <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
+      <c r="Z52" s="57"/>
       <c r="AA52" s="50"/>
       <c r="AB52" s="50"/>
-      <c r="AC52" s="50"/>
+      <c r="AC52" s="57"/>
       <c r="AD52" s="50"/>
       <c r="AE52" s="50"/>
       <c r="AF52" s="58">
-        <f t="shared" si="1"/>
+        <f>SUM(D52:AE52)</f>
         <v>0</v>
       </c>
       <c r="AG52" s="73"/>
     </row>
     <row r="53" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A53" s="88"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="50"/>
-      <c r="AD53" s="50"/>
-      <c r="AE53" s="50"/>
-      <c r="AF53" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="73"/>
-    </row>
-    <row r="54" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A54" s="88"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="50"/>
-      <c r="AC54" s="50"/>
-      <c r="AD54" s="50"/>
-      <c r="AE54" s="50"/>
-      <c r="AF54" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG54" s="73"/>
-    </row>
-    <row r="55" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A55" s="88"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG55" s="73"/>
-    </row>
-    <row r="56" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A56" s="88"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="50"/>
-      <c r="Y56" s="50"/>
-      <c r="Z56" s="50"/>
-      <c r="AA56" s="50"/>
-      <c r="AB56" s="50"/>
-      <c r="AC56" s="50"/>
-      <c r="AD56" s="50"/>
-      <c r="AE56" s="50"/>
-      <c r="AF56" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG56" s="73"/>
-    </row>
-    <row r="57" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="B57" s="89"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="50"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="50"/>
-      <c r="W57" s="50"/>
-      <c r="X57" s="50"/>
-      <c r="Y57" s="50"/>
-      <c r="Z57" s="50"/>
-      <c r="AA57" s="50"/>
-      <c r="AB57" s="50"/>
-      <c r="AC57" s="50"/>
-      <c r="AD57" s="50"/>
-      <c r="AE57" s="50"/>
-      <c r="AF57" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG57" s="73"/>
-    </row>
-    <row r="58" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="50"/>
-      <c r="R58" s="50"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="50"/>
-      <c r="W58" s="50"/>
-      <c r="X58" s="50"/>
-      <c r="Y58" s="50"/>
-      <c r="Z58" s="50"/>
-      <c r="AA58" s="50"/>
-      <c r="AB58" s="50"/>
-      <c r="AC58" s="50"/>
-      <c r="AD58" s="50"/>
-      <c r="AE58" s="50"/>
-      <c r="AF58" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="73"/>
-    </row>
-    <row r="59" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A59" s="67"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="50"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="50"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="50"/>
-      <c r="W59" s="50"/>
-      <c r="X59" s="50"/>
-      <c r="Y59" s="50"/>
-      <c r="Z59" s="50"/>
-      <c r="AA59" s="50"/>
-      <c r="AB59" s="50"/>
-      <c r="AC59" s="50"/>
-      <c r="AD59" s="50"/>
-      <c r="AE59" s="50"/>
-      <c r="AF59" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG59" s="73"/>
-    </row>
-    <row r="60" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A60" s="67"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="50"/>
-      <c r="Z60" s="50"/>
-      <c r="AA60" s="50"/>
-      <c r="AB60" s="50"/>
-      <c r="AC60" s="50"/>
-      <c r="AD60" s="50"/>
-      <c r="AE60" s="50"/>
-      <c r="AF60" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG60" s="73"/>
-    </row>
-    <row r="61" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A61" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="73"/>
-    </row>
-    <row r="62" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A62" s="67"/>
-      <c r="B62" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="57">
-        <v>1</v>
-      </c>
-      <c r="E62" s="57">
-        <v>1</v>
-      </c>
-      <c r="F62" s="57"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="57">
-        <v>1</v>
-      </c>
-      <c r="I62" s="50">
-        <v>1</v>
-      </c>
-      <c r="J62" s="50">
-        <v>1</v>
-      </c>
-      <c r="K62" s="50">
-        <v>1</v>
-      </c>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="50">
-        <v>1</v>
-      </c>
-      <c r="P62" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="50">
-        <v>1</v>
-      </c>
-      <c r="R62" s="50">
-        <v>1</v>
-      </c>
-      <c r="S62" s="50">
-        <v>1</v>
-      </c>
-      <c r="T62" s="50"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="50">
-        <v>1</v>
-      </c>
-      <c r="W62" s="50">
-        <v>1</v>
-      </c>
-      <c r="X62" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="50"/>
-      <c r="AB62" s="50"/>
-      <c r="AC62" s="50">
-        <v>1</v>
-      </c>
-      <c r="AD62" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE62" s="50">
-        <v>1</v>
-      </c>
-      <c r="AF62" s="58">
-        <f>SUM(D62:AE62)</f>
-        <v>19</v>
-      </c>
-      <c r="AG62" s="73"/>
-    </row>
-    <row r="63" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A63" s="67"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="50"/>
-      <c r="Q63" s="50"/>
-      <c r="R63" s="50"/>
-      <c r="S63" s="50"/>
-      <c r="T63" s="50"/>
-      <c r="U63" s="50"/>
-      <c r="V63" s="50"/>
-      <c r="W63" s="50"/>
-      <c r="X63" s="50"/>
-      <c r="Y63" s="50"/>
-      <c r="Z63" s="50"/>
-      <c r="AA63" s="50"/>
-      <c r="AB63" s="50"/>
-      <c r="AC63" s="50"/>
-      <c r="AD63" s="50"/>
-      <c r="AE63" s="50"/>
-      <c r="AF63" s="58">
-        <f>SUM(D63:AE63)</f>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="73"/>
-    </row>
-    <row r="64" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A64" s="67"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="50"/>
-      <c r="Y64" s="50"/>
-      <c r="Z64" s="50"/>
-      <c r="AA64" s="50"/>
-      <c r="AB64" s="50"/>
-      <c r="AC64" s="50"/>
-      <c r="AD64" s="50"/>
-      <c r="AE64" s="50"/>
-      <c r="AF64" s="58">
-        <f>SUM(D64:AE64)</f>
-        <v>0</v>
-      </c>
-      <c r="AG64" s="73"/>
-    </row>
-    <row r="65" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="68"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
-      <c r="AB65" s="61"/>
-      <c r="AC65" s="61"/>
-      <c r="AD65" s="61"/>
-      <c r="AE65" s="61"/>
-      <c r="AF65" s="62"/>
-      <c r="AG65" s="73"/>
-    </row>
-    <row r="66" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A66" s="176" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="177"/>
-      <c r="C66" s="178"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="50"/>
-      <c r="U66" s="50"/>
-      <c r="V66" s="50"/>
-      <c r="W66" s="50"/>
-      <c r="X66" s="50"/>
-      <c r="Y66" s="50"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="50"/>
-      <c r="AC66" s="50"/>
-      <c r="AD66" s="50"/>
-      <c r="AE66" s="50"/>
-      <c r="AF66" s="58">
-        <f>SUM(D66:AE66)</f>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="73"/>
-    </row>
-    <row r="67" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A67" s="176" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="177"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50">
+      <c r="A53" s="181" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="182"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="57">
+        <f t="shared" ref="D53:AC53" si="2">SUM(D11:D48)</f>
         <v>8</v>
       </c>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="50"/>
-      <c r="W67" s="50"/>
-      <c r="X67" s="50"/>
-      <c r="Y67" s="50"/>
-      <c r="Z67" s="50"/>
-      <c r="AA67" s="50"/>
-      <c r="AB67" s="50"/>
-      <c r="AC67" s="50"/>
-      <c r="AD67" s="50"/>
-      <c r="AE67" s="50"/>
-      <c r="AF67" s="58">
-        <f>SUM(D67:AE67)</f>
+      <c r="E53" s="57">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AG67" s="73"/>
-    </row>
-    <row r="68" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A68" s="179" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="180"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="50"/>
-      <c r="W68" s="50"/>
-      <c r="X68" s="50"/>
-      <c r="Y68" s="50"/>
-      <c r="Z68" s="50"/>
-      <c r="AA68" s="50"/>
-      <c r="AB68" s="50"/>
-      <c r="AC68" s="50"/>
-      <c r="AD68" s="50"/>
-      <c r="AE68" s="50"/>
-      <c r="AF68" s="58">
-        <f>SUM(D68:AE68)</f>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="73"/>
-    </row>
-    <row r="69" spans="1:33" ht="17" x14ac:dyDescent="0.4">
-      <c r="A69" s="176" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="177"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="57">
-        <f t="shared" ref="D69:AC69" si="2">SUM(D11:D64)</f>
-        <v>1</v>
-      </c>
-      <c r="E69" s="57">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F69" s="57">
+      <c r="F53" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G69" s="57">
+      <c r="G53" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H69" s="57">
+      <c r="H53" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I69" s="50">
+        <v>8</v>
+      </c>
+      <c r="I53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J69" s="50">
+        <v>8</v>
+      </c>
+      <c r="J53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K69" s="50">
+        <v>8</v>
+      </c>
+      <c r="K53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L69" s="50">
+        <v>8</v>
+      </c>
+      <c r="L53" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M69" s="50">
+      <c r="M53" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N69" s="50">
+      <c r="N53" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O69" s="50">
+      <c r="O53" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P69" s="50">
+        <v>8</v>
+      </c>
+      <c r="P53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q69" s="50">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R69" s="50">
+        <v>8</v>
+      </c>
+      <c r="R53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S69" s="50">
+        <v>8</v>
+      </c>
+      <c r="S53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T69" s="50">
+        <v>8</v>
+      </c>
+      <c r="T53" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U69" s="50">
+      <c r="U53" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V69" s="50">
+      <c r="V53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="W69" s="50">
+        <v>8</v>
+      </c>
+      <c r="W53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X69" s="50">
+        <v>8</v>
+      </c>
+      <c r="X53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y69" s="50">
+        <v>8</v>
+      </c>
+      <c r="Y53" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Z69" s="50">
+        <v>8</v>
+      </c>
+      <c r="Z53" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA69" s="50">
+        <v>8</v>
+      </c>
+      <c r="AA53" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB69" s="50">
+      <c r="AB53" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC69" s="50">
+      <c r="AC53" s="57">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AD53" s="50">
+        <f>SUM(AD11:AD48)</f>
+        <v>8</v>
+      </c>
+      <c r="AE53" s="50">
+        <f>SUM(AE11:AE48)</f>
+        <v>8</v>
+      </c>
+      <c r="AF53" s="58">
+        <f>SUM(D53:AE53)</f>
+        <v>152</v>
+      </c>
+      <c r="AG53" s="73"/>
+    </row>
+    <row r="54" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:33" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="91"/>
+      <c r="B55" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="148"/>
+      <c r="S55" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="T55" s="202"/>
+      <c r="U55" s="202"/>
+      <c r="V55" s="202"/>
+      <c r="W55" s="202"/>
+      <c r="X55" s="202"/>
+      <c r="Y55" s="202"/>
+      <c r="Z55" s="202"/>
+      <c r="AA55" s="203"/>
+      <c r="AC55" s="187" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD55" s="188"/>
+      <c r="AE55" s="188"/>
+      <c r="AF55" s="188"/>
+      <c r="AG55" s="189"/>
+    </row>
+    <row r="56" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="69"/>
+      <c r="B56" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="S56" s="190" t="s">
+        <v>46</v>
+      </c>
+      <c r="T56" s="191"/>
+      <c r="U56" s="192" t="s">
+        <v>169</v>
+      </c>
+      <c r="V56" s="192"/>
+      <c r="W56" s="192"/>
+      <c r="X56" s="192"/>
+      <c r="Y56" s="192"/>
+      <c r="Z56" s="192"/>
+      <c r="AA56" s="193"/>
+      <c r="AC56" s="164" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD56" s="150"/>
+      <c r="AE56" s="150"/>
+      <c r="AF56" s="150"/>
+      <c r="AG56" s="151"/>
+    </row>
+    <row r="57" spans="1:33" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="70"/>
+      <c r="B57" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+      <c r="S57" s="190"/>
+      <c r="T57" s="191"/>
+      <c r="U57" s="192"/>
+      <c r="V57" s="192"/>
+      <c r="W57" s="192"/>
+      <c r="X57" s="192"/>
+      <c r="Y57" s="192"/>
+      <c r="Z57" s="192"/>
+      <c r="AA57" s="193"/>
+      <c r="AC57" s="165"/>
+      <c r="AD57" s="153"/>
+      <c r="AE57" s="153"/>
+      <c r="AF57" s="153"/>
+      <c r="AG57" s="154"/>
+    </row>
+    <row r="58" spans="1:33" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="71"/>
+      <c r="B58" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="148"/>
+      <c r="S58" s="190"/>
+      <c r="T58" s="191"/>
+      <c r="U58" s="192"/>
+      <c r="V58" s="192"/>
+      <c r="W58" s="192"/>
+      <c r="X58" s="192"/>
+      <c r="Y58" s="192"/>
+      <c r="Z58" s="192"/>
+      <c r="AA58" s="193"/>
+      <c r="AC58" s="165"/>
+      <c r="AD58" s="153"/>
+      <c r="AE58" s="153"/>
+      <c r="AF58" s="153"/>
+      <c r="AG58" s="154"/>
+    </row>
+    <row r="59" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S59" s="190"/>
+      <c r="T59" s="191"/>
+      <c r="U59" s="192"/>
+      <c r="V59" s="192"/>
+      <c r="W59" s="192"/>
+      <c r="X59" s="192"/>
+      <c r="Y59" s="192"/>
+      <c r="Z59" s="192"/>
+      <c r="AA59" s="193"/>
+      <c r="AC59" s="165"/>
+      <c r="AD59" s="153"/>
+      <c r="AE59" s="153"/>
+      <c r="AF59" s="153"/>
+      <c r="AG59" s="154"/>
+    </row>
+    <row r="60" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="46"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="S60" s="190"/>
+      <c r="T60" s="191"/>
+      <c r="U60" s="192"/>
+      <c r="V60" s="192"/>
+      <c r="W60" s="192"/>
+      <c r="X60" s="192"/>
+      <c r="Y60" s="192"/>
+      <c r="Z60" s="192"/>
+      <c r="AA60" s="193"/>
+      <c r="AC60" s="194"/>
+      <c r="AD60" s="195"/>
+      <c r="AE60" s="195"/>
+      <c r="AF60" s="195"/>
+      <c r="AG60" s="196"/>
+    </row>
+    <row r="61" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="145"/>
+      <c r="C61" s="63">
+        <f>COUNTIF(D52:AE52,"=8")</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="S61" s="190" t="s">
+        <v>53</v>
+      </c>
+      <c r="T61" s="191"/>
+      <c r="U61" s="192" t="s">
+        <v>170</v>
+      </c>
+      <c r="V61" s="192"/>
+      <c r="W61" s="192"/>
+      <c r="X61" s="192"/>
+      <c r="Y61" s="192"/>
+      <c r="Z61" s="192"/>
+      <c r="AA61" s="193"/>
+      <c r="AC61" s="165" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD61" s="153"/>
+      <c r="AE61" s="153"/>
+      <c r="AF61" s="153"/>
+      <c r="AG61" s="154"/>
+    </row>
+    <row r="62" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="64">
+        <f>NETWORKDAYS(B2,B3)-C61</f>
+        <v>20</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="S62" s="190"/>
+      <c r="T62" s="191"/>
+      <c r="U62" s="192"/>
+      <c r="V62" s="192"/>
+      <c r="W62" s="192"/>
+      <c r="X62" s="192"/>
+      <c r="Y62" s="192"/>
+      <c r="Z62" s="192"/>
+      <c r="AA62" s="193"/>
+      <c r="AC62" s="165"/>
+      <c r="AD62" s="153"/>
+      <c r="AE62" s="153"/>
+      <c r="AF62" s="153"/>
+      <c r="AG62" s="154"/>
+    </row>
+    <row r="63" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="63">
+        <f>AF51/8</f>
         <v>1</v>
       </c>
-      <c r="AD69" s="50">
-        <f>SUM(AD11:AD64)</f>
-        <v>1</v>
-      </c>
-      <c r="AE69" s="50">
-        <f>SUM(AE11:AE64)</f>
-        <v>1</v>
-      </c>
-      <c r="AF69" s="58">
-        <f>SUM(D69:AE69)</f>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="S63" s="190"/>
+      <c r="T63" s="191"/>
+      <c r="U63" s="192"/>
+      <c r="V63" s="192"/>
+      <c r="W63" s="192"/>
+      <c r="X63" s="192"/>
+      <c r="Y63" s="192"/>
+      <c r="Z63" s="192"/>
+      <c r="AA63" s="193"/>
+      <c r="AC63" s="165"/>
+      <c r="AD63" s="153"/>
+      <c r="AE63" s="153"/>
+      <c r="AF63" s="153"/>
+      <c r="AG63" s="154"/>
+    </row>
+    <row r="64" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="63">
+        <f>AF50/8</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="S64" s="190"/>
+      <c r="T64" s="191"/>
+      <c r="U64" s="192"/>
+      <c r="V64" s="192"/>
+      <c r="W64" s="192"/>
+      <c r="X64" s="192"/>
+      <c r="Y64" s="192"/>
+      <c r="Z64" s="192"/>
+      <c r="AA64" s="193"/>
+      <c r="AC64" s="165"/>
+      <c r="AD64" s="153"/>
+      <c r="AE64" s="153"/>
+      <c r="AF64" s="153"/>
+      <c r="AG64" s="154"/>
+    </row>
+    <row r="65" spans="1:33" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="179" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="179"/>
+      <c r="C65" s="63">
+        <f>COUNTIF(D53:AE53,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="AG69" s="73"/>
-    </row>
-    <row r="70" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="71" spans="1:33" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="91"/>
-      <c r="B71" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="143"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143"/>
-      <c r="J71" s="143"/>
-      <c r="S71" s="196" t="s">
-        <v>43</v>
-      </c>
-      <c r="T71" s="197"/>
-      <c r="U71" s="197"/>
-      <c r="V71" s="197"/>
-      <c r="W71" s="197"/>
-      <c r="X71" s="197"/>
-      <c r="Y71" s="197"/>
-      <c r="Z71" s="197"/>
-      <c r="AA71" s="198"/>
-      <c r="AC71" s="182" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD71" s="183"/>
-      <c r="AE71" s="183"/>
-      <c r="AF71" s="183"/>
-      <c r="AG71" s="184"/>
-    </row>
-    <row r="72" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="69"/>
-      <c r="B72" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="143"/>
-      <c r="F72" s="143"/>
-      <c r="G72" s="143"/>
-      <c r="H72" s="143"/>
-      <c r="I72" s="143"/>
-      <c r="J72" s="143"/>
-      <c r="S72" s="185" t="s">
-        <v>46</v>
-      </c>
-      <c r="T72" s="186"/>
-      <c r="U72" s="187" t="s">
-        <v>169</v>
-      </c>
-      <c r="V72" s="187"/>
-      <c r="W72" s="187"/>
-      <c r="X72" s="187"/>
-      <c r="Y72" s="187"/>
-      <c r="Z72" s="187"/>
-      <c r="AA72" s="188"/>
-      <c r="AC72" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD72" s="145"/>
-      <c r="AE72" s="145"/>
-      <c r="AF72" s="145"/>
-      <c r="AG72" s="146"/>
-    </row>
-    <row r="73" spans="1:33" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="70"/>
-      <c r="B73" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" s="143"/>
-      <c r="F73" s="143"/>
-      <c r="G73" s="143"/>
-      <c r="H73" s="143"/>
-      <c r="I73" s="143"/>
-      <c r="J73" s="143"/>
-      <c r="S73" s="185"/>
-      <c r="T73" s="186"/>
-      <c r="U73" s="187"/>
-      <c r="V73" s="187"/>
-      <c r="W73" s="187"/>
-      <c r="X73" s="187"/>
-      <c r="Y73" s="187"/>
-      <c r="Z73" s="187"/>
-      <c r="AA73" s="188"/>
-      <c r="AC73" s="160"/>
-      <c r="AD73" s="148"/>
-      <c r="AE73" s="148"/>
-      <c r="AF73" s="148"/>
-      <c r="AG73" s="149"/>
-    </row>
-    <row r="74" spans="1:33" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="71"/>
-      <c r="B74" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E74" s="143"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="143"/>
-      <c r="I74" s="143"/>
-      <c r="J74" s="143"/>
-      <c r="S74" s="185"/>
-      <c r="T74" s="186"/>
-      <c r="U74" s="187"/>
-      <c r="V74" s="187"/>
-      <c r="W74" s="187"/>
-      <c r="X74" s="187"/>
-      <c r="Y74" s="187"/>
-      <c r="Z74" s="187"/>
-      <c r="AA74" s="188"/>
-      <c r="AC74" s="160"/>
-      <c r="AD74" s="148"/>
-      <c r="AE74" s="148"/>
-      <c r="AF74" s="148"/>
-      <c r="AG74" s="149"/>
-    </row>
-    <row r="75" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S75" s="185"/>
-      <c r="T75" s="186"/>
-      <c r="U75" s="187"/>
-      <c r="V75" s="187"/>
-      <c r="W75" s="187"/>
-      <c r="X75" s="187"/>
-      <c r="Y75" s="187"/>
-      <c r="Z75" s="187"/>
-      <c r="AA75" s="188"/>
-      <c r="AC75" s="160"/>
-      <c r="AD75" s="148"/>
-      <c r="AE75" s="148"/>
-      <c r="AF75" s="148"/>
-      <c r="AG75" s="149"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="S65" s="197"/>
+      <c r="T65" s="198"/>
+      <c r="U65" s="199"/>
+      <c r="V65" s="199"/>
+      <c r="W65" s="199"/>
+      <c r="X65" s="199"/>
+      <c r="Y65" s="199"/>
+      <c r="Z65" s="199"/>
+      <c r="AA65" s="200"/>
+      <c r="AC65" s="166"/>
+      <c r="AD65" s="156"/>
+      <c r="AE65" s="156"/>
+      <c r="AF65" s="156"/>
+      <c r="AG65" s="157"/>
+    </row>
+    <row r="66" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" s="65">
+        <f>C65/(C65+C63+C64)</f>
+        <v>0.95</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="63"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+    </row>
+    <row r="68" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="46"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+    </row>
+    <row r="69" spans="1:33" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="179" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="179"/>
+      <c r="C69" s="63">
+        <f>AF53</f>
+        <v>152</v>
+      </c>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+    </row>
+    <row r="70" spans="1:33" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="179"/>
+      <c r="C70" s="63">
+        <v>39</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+    </row>
+    <row r="71" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="48"/>
+      <c r="C71" s="63">
+        <f>SUMIFS($AF$12:$AF$48, $C$12:$C$48, "Morning")</f>
+        <v>19</v>
+      </c>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+    </row>
+    <row r="72" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="48"/>
+      <c r="C72" s="63">
+        <f>SUMIFS($AF$12:$AF$48, $C$12:$C$48, "Afternoon")</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+    </row>
+    <row r="73" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="48"/>
+      <c r="C73" s="63">
+        <f>SUMIFS($AF$12:$AF$48, $C$12:$C$48, "Night")</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+    </row>
+    <row r="74" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="63"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
     </row>
     <row r="76" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="46"/>
+      <c r="A76" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="47"/>
       <c r="C76" s="63"/>
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
       <c r="F76" s="44"/>
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
-      <c r="S76" s="185"/>
-      <c r="T76" s="186"/>
-      <c r="U76" s="187"/>
-      <c r="V76" s="187"/>
-      <c r="W76" s="187"/>
-      <c r="X76" s="187"/>
-      <c r="Y76" s="187"/>
-      <c r="Z76" s="187"/>
-      <c r="AA76" s="188"/>
-      <c r="AC76" s="189"/>
-      <c r="AD76" s="190"/>
-      <c r="AE76" s="190"/>
-      <c r="AF76" s="190"/>
-      <c r="AG76" s="191"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
     </row>
     <row r="77" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="140" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="140"/>
-      <c r="C77" s="63">
-        <f>COUNTIF(D68:AE68,"=8")</f>
-        <v>0</v>
-      </c>
+      <c r="A77" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="47"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
-      <c r="S77" s="185" t="s">
-        <v>53</v>
-      </c>
-      <c r="T77" s="186"/>
-      <c r="U77" s="187" t="s">
-        <v>170</v>
-      </c>
-      <c r="V77" s="187"/>
-      <c r="W77" s="187"/>
-      <c r="X77" s="187"/>
-      <c r="Y77" s="187"/>
-      <c r="Z77" s="187"/>
-      <c r="AA77" s="188"/>
-      <c r="AC77" s="160" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD77" s="148"/>
-      <c r="AE77" s="148"/>
-      <c r="AF77" s="148"/>
-      <c r="AG77" s="149"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
     </row>
     <row r="78" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A78" s="63" t="s">
-        <v>56</v>
-      </c>
+      <c r="A78" s="63"/>
       <c r="B78" s="47"/>
-      <c r="C78" s="64">
-        <f>NETWORKDAYS(B2,B3)-C77</f>
-        <v>20</v>
-      </c>
+      <c r="C78" s="63"/>
       <c r="D78" s="44"/>
       <c r="E78" s="44"/>
       <c r="F78" s="44"/>
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
-      <c r="S78" s="185"/>
-      <c r="T78" s="186"/>
-      <c r="U78" s="187"/>
-      <c r="V78" s="187"/>
-      <c r="W78" s="187"/>
-      <c r="X78" s="187"/>
-      <c r="Y78" s="187"/>
-      <c r="Z78" s="187"/>
-      <c r="AA78" s="188"/>
-      <c r="AC78" s="160"/>
-      <c r="AD78" s="148"/>
-      <c r="AE78" s="148"/>
-      <c r="AF78" s="148"/>
-      <c r="AG78" s="149"/>
-    </row>
-    <row r="79" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="63">
-        <f>AF67/8</f>
-        <v>1</v>
-      </c>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="S79" s="185"/>
-      <c r="T79" s="186"/>
-      <c r="U79" s="187"/>
-      <c r="V79" s="187"/>
-      <c r="W79" s="187"/>
-      <c r="X79" s="187"/>
-      <c r="Y79" s="187"/>
-      <c r="Z79" s="187"/>
-      <c r="AA79" s="188"/>
-      <c r="AC79" s="160"/>
-      <c r="AD79" s="148"/>
-      <c r="AE79" s="148"/>
-      <c r="AF79" s="148"/>
-      <c r="AG79" s="149"/>
-    </row>
-    <row r="80" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A80" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="63">
-        <f>AF66/8</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="S80" s="185"/>
-      <c r="T80" s="186"/>
-      <c r="U80" s="187"/>
-      <c r="V80" s="187"/>
-      <c r="W80" s="187"/>
-      <c r="X80" s="187"/>
-      <c r="Y80" s="187"/>
-      <c r="Z80" s="187"/>
-      <c r="AA80" s="188"/>
-      <c r="AC80" s="160"/>
-      <c r="AD80" s="148"/>
-      <c r="AE80" s="148"/>
-      <c r="AF80" s="148"/>
-      <c r="AG80" s="149"/>
-    </row>
-    <row r="81" spans="1:33" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="174" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="174"/>
-      <c r="C81" s="63">
-        <f>COUNTIF(D69:AE69,"&gt;0")</f>
-        <v>19</v>
-      </c>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="S81" s="192"/>
-      <c r="T81" s="193"/>
-      <c r="U81" s="194"/>
-      <c r="V81" s="194"/>
-      <c r="W81" s="194"/>
-      <c r="X81" s="194"/>
-      <c r="Y81" s="194"/>
-      <c r="Z81" s="194"/>
-      <c r="AA81" s="195"/>
-      <c r="AC81" s="161"/>
-      <c r="AD81" s="151"/>
-      <c r="AE81" s="151"/>
-      <c r="AF81" s="151"/>
-      <c r="AG81" s="152"/>
-    </row>
-    <row r="82" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A82" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="65">
-        <f>C81/(C81+C79+C80)</f>
-        <v>0.95</v>
-      </c>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-    </row>
-    <row r="83" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="63"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-    </row>
-    <row r="84" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="46"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-    </row>
-    <row r="85" spans="1:33" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="174"/>
-      <c r="C85" s="63">
-        <f>AF69</f>
-        <v>19</v>
-      </c>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-    </row>
-    <row r="86" spans="1:33" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="174" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" s="174"/>
-      <c r="C86" s="63">
-        <v>39</v>
-      </c>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-    </row>
-    <row r="87" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="63">
-        <f>SUMIFS($AF$12:$AF$64, $C$12:$C$64, "Morning")</f>
-        <v>19</v>
-      </c>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-    </row>
-    <row r="88" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A88" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="63">
-        <f>SUMIFS($AF$12:$AF$64, $C$12:$C$64, "Afternoon")</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-    </row>
-    <row r="89" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A89" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="63">
-        <f>SUMIFS($AF$12:$AF$64, $C$12:$C$64, "Night")</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-    </row>
-    <row r="90" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A90" s="63"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-    </row>
-    <row r="91" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-    </row>
-    <row r="92" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="47"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-    </row>
-    <row r="93" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-    </row>
-    <row r="94" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A94" s="63"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-    </row>
-    <row r="96" spans="1:33" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+    </row>
+    <row r="80" spans="1:33" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A12:A41"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="E71:J74"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="AC71:AG71"/>
-    <mergeCell ref="S72:T76"/>
-    <mergeCell ref="U72:AA76"/>
-    <mergeCell ref="AC72:AG76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="S77:T81"/>
-    <mergeCell ref="U77:AA81"/>
-    <mergeCell ref="AC77:AG81"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="S71:AA71"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E55:J58"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="AC55:AG55"/>
+    <mergeCell ref="S56:T60"/>
+    <mergeCell ref="U56:AA60"/>
+    <mergeCell ref="AC56:AG60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="S61:T65"/>
+    <mergeCell ref="U61:AA65"/>
+    <mergeCell ref="AC61:AG65"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="S55:AA55"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -7845,15 +8173,15 @@
       <formula>TEXT(B3,"mmm")&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:AE69">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="D9:AE53">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>OR(D$9="Sat",D$9="Sun")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>D$68=8</formula>
+    <cfRule type="expression" dxfId="2" priority="36">
+      <formula>D$52=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:AE69">
+  <conditionalFormatting sqref="D53:AE53">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -8731,7 +9059,7 @@
       <c r="C47" s="129"/>
       <c r="D47" s="122"/>
       <c r="E47" s="119"/>
-      <c r="F47" s="199"/>
+      <c r="F47" s="204"/>
       <c r="G47" s="122"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
@@ -8739,7 +9067,7 @@
       <c r="C48" s="128"/>
       <c r="D48" s="122"/>
       <c r="E48" s="119"/>
-      <c r="F48" s="199"/>
+      <c r="F48" s="204"/>
       <c r="G48" s="122"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
@@ -8747,7 +9075,7 @@
       <c r="C49" s="128"/>
       <c r="D49" s="122"/>
       <c r="E49" s="119"/>
-      <c r="F49" s="199"/>
+      <c r="F49" s="204"/>
       <c r="G49" s="122"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
@@ -8755,7 +9083,7 @@
       <c r="C50" s="129"/>
       <c r="D50" s="122"/>
       <c r="E50" s="119"/>
-      <c r="F50" s="199"/>
+      <c r="F50" s="204"/>
       <c r="G50" s="122"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.35">
